--- a/database/industries/ghaza/ghegolpa/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghegolpa/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegolpa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2032F-34C6-4DA8-9272-F4BBF0CB12FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9CE72-A935-40C4-98B5-8F0C38A16D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1513,95 +1513,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>1179</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>68</v>
       </c>
       <c r="AA11" s="11">
-        <v>1179</v>
+        <v>599</v>
       </c>
       <c r="AB11" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="11">
-        <v>599</v>
+        <v>93</v>
       </c>
       <c r="AD11" s="11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AE11" s="11">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AF11" s="11">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="AG11" s="11">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="AH11" s="11">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AI11" s="11">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="AJ11" s="11">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AK11" s="11">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>19</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>27</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>41</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>22</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>45</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>97</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>16</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>4</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AZ11" s="11">
         <v>47</v>
       </c>
-      <c r="AM11" s="11">
-        <v>4</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>19</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>27</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>41</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>22</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>45</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>97</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AV11" s="11">
-        <v>16</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>35</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>4</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>12</v>
-      </c>
       <c r="BA11" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BB11" s="11">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1672,95 +1672,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>141</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>130</v>
       </c>
       <c r="AA12" s="13">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="AB12" s="13">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AC12" s="13">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AD12" s="13">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AE12" s="13">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="AF12" s="13">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AG12" s="13">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>87</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>105</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>118</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>88</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>100</v>
+      </c>
+      <c r="AN12" s="13">
         <v>90</v>
       </c>
-      <c r="AH12" s="13">
-        <v>88</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>79</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>87</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>105</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>121</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>118</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>88</v>
-      </c>
       <c r="AO12" s="13">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AP12" s="13">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AQ12" s="13">
+        <v>85</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>104</v>
+      </c>
+      <c r="AS12" s="13">
         <v>94</v>
       </c>
-      <c r="AR12" s="13">
-        <v>86</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>85</v>
-      </c>
       <c r="AT12" s="13">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AU12" s="13">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="AV12" s="13">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AW12" s="13">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="AX12" s="13">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AY12" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AZ12" s="13">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BA12" s="13">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BB12" s="13">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1831,95 +1831,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>1144</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1402</v>
       </c>
       <c r="AA13" s="11">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="AB13" s="11">
-        <v>1402</v>
+        <v>1002</v>
       </c>
       <c r="AC13" s="11">
+        <v>970</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>966</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>989</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1113</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>1450</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>1447</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>1205</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>1580</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>1635</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>1411</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>1653</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>1125</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>931</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>957</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>1203</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>831</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>1305</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>1360</v>
+      </c>
+      <c r="AU13" s="11">
         <v>1151</v>
       </c>
-      <c r="AD13" s="11">
-        <v>1002</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>970</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>966</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>989</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>1113</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>1450</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>1447</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>1205</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>1580</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>1635</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>1411</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>1653</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>1125</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>931</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>957</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>1203</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>831</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>1305</v>
-      </c>
       <c r="AV13" s="11">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="AW13" s="11">
-        <v>1151</v>
+        <v>1110</v>
       </c>
       <c r="AX13" s="11">
-        <v>1347</v>
+        <v>1150</v>
       </c>
       <c r="AY13" s="11">
-        <v>1110</v>
+        <v>1179</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1150</v>
+        <v>917</v>
       </c>
       <c r="BA13" s="11">
-        <v>1179</v>
+        <v>773</v>
       </c>
       <c r="BB13" s="11">
-        <v>917</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1990,95 +1990,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>75</v>
       </c>
       <c r="AA14" s="13">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AB14" s="13">
+        <v>68</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>85</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>89</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>73</v>
+      </c>
+      <c r="AF14" s="13">
         <v>75</v>
       </c>
-      <c r="AC14" s="13">
-        <v>69</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>68</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>85</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>89</v>
-      </c>
       <c r="AG14" s="13">
+        <v>83</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>91</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>75</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>65</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>65</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>64</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>62</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>74</v>
+      </c>
+      <c r="AO14" s="13">
         <v>73</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>75</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>83</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>91</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>75</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>65</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>65</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>64</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>62</v>
       </c>
       <c r="AP14" s="13">
         <v>74</v>
       </c>
       <c r="AQ14" s="13">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AR14" s="13">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AS14" s="13">
+        <v>72</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>83</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>65</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>51</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>44</v>
+      </c>
+      <c r="AX14" s="13">
         <v>62</v>
       </c>
-      <c r="AT14" s="13">
-        <v>70</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>72</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>83</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>65</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>51</v>
-      </c>
       <c r="AY14" s="13">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AZ14" s="13">
+        <v>61</v>
+      </c>
+      <c r="BA14" s="13">
         <v>62</v>
       </c>
-      <c r="BA14" s="13">
-        <v>59</v>
-      </c>
       <c r="BB14" s="13">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2149,95 +2149,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>920</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>989</v>
       </c>
       <c r="AA15" s="11">
+        <v>1104</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>847</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1135</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>1092</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1225</v>
+      </c>
+      <c r="AF15" s="11">
         <v>920</v>
       </c>
-      <c r="AB15" s="11">
-        <v>989</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1104</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>847</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1135</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1092</v>
-      </c>
       <c r="AG15" s="11">
-        <v>1225</v>
+        <v>1349</v>
       </c>
       <c r="AH15" s="11">
-        <v>920</v>
+        <v>1053</v>
       </c>
       <c r="AI15" s="11">
-        <v>1349</v>
+        <v>1087</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1053</v>
+        <v>977</v>
       </c>
       <c r="AK15" s="11">
-        <v>1087</v>
+        <v>865</v>
       </c>
       <c r="AL15" s="11">
-        <v>977</v>
+        <v>823</v>
       </c>
       <c r="AM15" s="11">
-        <v>865</v>
+        <v>960</v>
       </c>
       <c r="AN15" s="11">
-        <v>823</v>
+        <v>1013</v>
       </c>
       <c r="AO15" s="11">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="AP15" s="11">
-        <v>1013</v>
+        <v>914</v>
       </c>
       <c r="AQ15" s="11">
-        <v>949</v>
+        <v>921</v>
       </c>
       <c r="AR15" s="11">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="AS15" s="11">
-        <v>921</v>
+        <v>693</v>
       </c>
       <c r="AT15" s="11">
-        <v>923</v>
+        <v>741</v>
       </c>
       <c r="AU15" s="11">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="AV15" s="11">
-        <v>741</v>
+        <v>581</v>
       </c>
       <c r="AW15" s="11">
-        <v>739</v>
+        <v>611</v>
       </c>
       <c r="AX15" s="11">
-        <v>581</v>
+        <v>801</v>
       </c>
       <c r="AY15" s="11">
-        <v>611</v>
+        <v>755</v>
       </c>
       <c r="AZ15" s="11">
-        <v>801</v>
+        <v>698</v>
       </c>
       <c r="BA15" s="11">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="BB15" s="11">
-        <v>698</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2308,95 +2308,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>126</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>77</v>
       </c>
       <c r="AA16" s="13">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="AB16" s="13">
+        <v>146</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>207</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>190</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>238</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>93</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>103</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>65</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>18</v>
+      </c>
+      <c r="AK16" s="13">
         <v>77</v>
       </c>
-      <c r="AC16" s="13">
-        <v>103</v>
-      </c>
-      <c r="AD16" s="13">
+      <c r="AL16" s="13">
+        <v>113</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>86</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>197</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>196</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>183</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>132</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>166</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>64</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>131</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>161</v>
+      </c>
+      <c r="AX16" s="13">
         <v>146</v>
       </c>
-      <c r="AE16" s="13">
-        <v>131</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>207</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>190</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>238</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>93</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>103</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>65</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>18</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>77</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>113</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>6</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>86</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>197</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>196</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>183</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>132</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>166</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>111</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>64</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>131</v>
-      </c>
       <c r="AY16" s="13">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="AZ16" s="13">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="BA16" s="13">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="BB16" s="13">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2467,95 +2467,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>294</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>367</v>
       </c>
       <c r="AA17" s="11">
-        <v>294</v>
+        <v>790</v>
       </c>
       <c r="AB17" s="11">
-        <v>367</v>
+        <v>597</v>
       </c>
       <c r="AC17" s="11">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="AD17" s="11">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="AE17" s="11">
-        <v>675</v>
+        <v>793</v>
       </c>
       <c r="AF17" s="11">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="AG17" s="11">
-        <v>793</v>
+        <v>435</v>
       </c>
       <c r="AH17" s="11">
-        <v>720</v>
+        <v>882</v>
       </c>
       <c r="AI17" s="11">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="AJ17" s="11">
-        <v>882</v>
+        <v>462</v>
       </c>
       <c r="AK17" s="11">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="AL17" s="11">
-        <v>462</v>
+        <v>567</v>
       </c>
       <c r="AM17" s="11">
-        <v>517</v>
+        <v>707</v>
       </c>
       <c r="AN17" s="11">
-        <v>567</v>
+        <v>669</v>
       </c>
       <c r="AO17" s="11">
-        <v>707</v>
+        <v>605</v>
       </c>
       <c r="AP17" s="11">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="AQ17" s="11">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="AR17" s="11">
-        <v>640</v>
+        <v>731</v>
       </c>
       <c r="AS17" s="11">
-        <v>660</v>
+        <v>325</v>
       </c>
       <c r="AT17" s="11">
-        <v>731</v>
+        <v>494</v>
       </c>
       <c r="AU17" s="11">
-        <v>325</v>
+        <v>657</v>
       </c>
       <c r="AV17" s="11">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="AW17" s="11">
-        <v>657</v>
+        <v>577</v>
       </c>
       <c r="AX17" s="11">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="AY17" s="11">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="AZ17" s="11">
-        <v>493</v>
+        <v>628</v>
       </c>
       <c r="BA17" s="11">
-        <v>546</v>
+        <v>845</v>
       </c>
       <c r="BB17" s="11">
-        <v>628</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2626,95 +2626,95 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>165</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>247</v>
       </c>
       <c r="AA18" s="13">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="AB18" s="13">
+        <v>273</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>254</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>263</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>669</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>273</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>278</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>261</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>272</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>223</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>201</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>233</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>294</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>265</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>236</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>318</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>277</v>
+      </c>
+      <c r="AR18" s="13">
         <v>247</v>
       </c>
-      <c r="AC18" s="13">
-        <v>264</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>273</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>254</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>263</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>669</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>273</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>278</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>261</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>272</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>223</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>201</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>233</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>294</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>265</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>236</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>318</v>
-      </c>
       <c r="AS18" s="13">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AT18" s="13">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="AU18" s="13">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="AV18" s="13">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AW18" s="13">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AX18" s="13">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AY18" s="13">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="AZ18" s="13">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="BA18" s="13">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="BB18" s="13">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2785,92 +2785,92 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>6</v>
       </c>
       <c r="AA19" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>48</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="11">
         <v>8</v>
       </c>
-      <c r="AB19" s="11">
-        <v>6</v>
-      </c>
-      <c r="AC19" s="11">
+      <c r="AJ19" s="11">
+        <v>26</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>16</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>35</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>32</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>38</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>44</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>40</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>21</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>25</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>45</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>31</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>20</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>22</v>
+      </c>
+      <c r="AX19" s="11">
         <v>5</v>
       </c>
-      <c r="AD19" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>4</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>22</v>
-      </c>
-      <c r="AH19" s="11">
+      <c r="AY19" s="11">
+        <v>41</v>
+      </c>
+      <c r="AZ19" s="11">
+        <v>29</v>
+      </c>
+      <c r="BA19" s="11">
         <v>48</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>15</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>9</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>8</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>26</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>16</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>9</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>35</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>32</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>38</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>44</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>40</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>21</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>25</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>45</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>31</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>20</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>22</v>
-      </c>
-      <c r="AZ19" s="11">
-        <v>5</v>
-      </c>
-      <c r="BA19" s="11">
-        <v>41</v>
       </c>
       <c r="BB19" s="11">
         <v>29</v>
@@ -2943,94 +2943,94 @@
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <v>0</v>
+        <v>4056</v>
       </c>
       <c r="Z20" s="15">
-        <v>0</v>
+        <v>3361</v>
       </c>
       <c r="AA20" s="15">
-        <v>4056</v>
+        <v>4207</v>
       </c>
       <c r="AB20" s="15">
-        <v>3361</v>
+        <v>3061</v>
       </c>
       <c r="AC20" s="15">
-        <v>4207</v>
+        <v>3473</v>
       </c>
       <c r="AD20" s="15">
-        <v>3061</v>
+        <v>3511</v>
       </c>
       <c r="AE20" s="15">
-        <v>3473</v>
+        <v>4115</v>
       </c>
       <c r="AF20" s="15">
-        <v>3511</v>
+        <v>3541</v>
       </c>
       <c r="AG20" s="15">
-        <v>4115</v>
+        <v>4022</v>
       </c>
       <c r="AH20" s="15">
-        <v>3541</v>
+        <v>3969</v>
       </c>
       <c r="AI20" s="15">
-        <v>4022</v>
+        <v>3489</v>
       </c>
       <c r="AJ20" s="15">
-        <v>3969</v>
+        <v>3519</v>
       </c>
       <c r="AK20" s="15">
-        <v>3489</v>
+        <v>3498</v>
       </c>
       <c r="AL20" s="15">
-        <v>3519</v>
+        <v>3308</v>
       </c>
       <c r="AM20" s="15">
-        <v>3498</v>
+        <v>3836</v>
       </c>
       <c r="AN20" s="15">
-        <v>3308</v>
+        <v>3381</v>
       </c>
       <c r="AO20" s="15">
-        <v>3836</v>
+        <v>3164</v>
       </c>
       <c r="AP20" s="15">
-        <v>3381</v>
+        <v>3251</v>
       </c>
       <c r="AQ20" s="15">
-        <v>3164</v>
+        <v>3476</v>
       </c>
       <c r="AR20" s="15">
-        <v>3251</v>
+        <v>3156</v>
       </c>
       <c r="AS20" s="15">
-        <v>3476</v>
+        <v>2962</v>
       </c>
       <c r="AT20" s="15">
-        <v>3156</v>
+        <v>3191</v>
       </c>
       <c r="AU20" s="15">
-        <v>2962</v>
+        <v>3036</v>
       </c>
       <c r="AV20" s="15">
-        <v>3191</v>
+        <v>2886</v>
       </c>
       <c r="AW20" s="15">
-        <v>3036</v>
+        <v>2795</v>
       </c>
       <c r="AX20" s="15">
-        <v>2886</v>
+        <v>2952</v>
       </c>
       <c r="AY20" s="15">
-        <v>2795</v>
+        <v>2899</v>
       </c>
       <c r="AZ20" s="15">
-        <v>2952</v>
+        <v>2684</v>
       </c>
       <c r="BA20" s="15">
-        <v>2899</v>
+        <v>2817</v>
       </c>
       <c r="BB20" s="15">
-        <v>2684</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3185,14 +3185,14 @@
       <c r="AG22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="11" t="s">
-        <v>58</v>
+      <c r="AH22" s="11">
+        <v>0</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ22" s="11">
-        <v>0</v>
+      <c r="AJ22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="11" t="s">
         <v>58</v>
@@ -3218,8 +3218,8 @@
       <c r="AR22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="11" t="s">
-        <v>58</v>
+      <c r="AS22" s="11">
+        <v>0</v>
       </c>
       <c r="AT22" s="11" t="s">
         <v>58</v>
@@ -3317,11 +3317,11 @@
       <c r="X23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>58</v>
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
       </c>
       <c r="AA23" s="13">
         <v>0</v>
@@ -3347,11 +3347,11 @@
       <c r="AH23" s="13">
         <v>0</v>
       </c>
-      <c r="AI23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="13">
-        <v>0</v>
+      <c r="AI23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK23" s="13" t="s">
         <v>58</v>
@@ -3377,20 +3377,20 @@
       <c r="AR23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW23" s="13" t="s">
-        <v>58</v>
+      <c r="AS23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="13">
+        <v>0</v>
       </c>
       <c r="AX23" s="13">
         <v>0</v>
@@ -3476,11 +3476,11 @@
       <c r="X24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>58</v>
+      <c r="Y24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>0</v>
       </c>
       <c r="AA24" s="11">
         <v>0</v>
@@ -3506,11 +3506,11 @@
       <c r="AH24" s="11">
         <v>0</v>
       </c>
-      <c r="AI24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="11">
-        <v>0</v>
+      <c r="AI24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK24" s="11" t="s">
         <v>58</v>
@@ -3536,20 +3536,20 @@
       <c r="AR24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW24" s="11" t="s">
-        <v>58</v>
+      <c r="AS24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="11">
+        <v>0</v>
       </c>
       <c r="AX24" s="11">
         <v>0</v>
@@ -3662,14 +3662,14 @@
       <c r="AG25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="13" t="s">
-        <v>58</v>
+      <c r="AH25" s="13">
+        <v>0</v>
       </c>
       <c r="AI25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ25" s="13">
-        <v>0</v>
+      <c r="AJ25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK25" s="13" t="s">
         <v>58</v>
@@ -3695,8 +3695,8 @@
       <c r="AR25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS25" s="13" t="s">
-        <v>58</v>
+      <c r="AS25" s="13">
+        <v>0</v>
       </c>
       <c r="AT25" s="13" t="s">
         <v>58</v>
@@ -3794,11 +3794,11 @@
       <c r="X26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>58</v>
+      <c r="Y26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0</v>
       </c>
       <c r="AA26" s="11">
         <v>0</v>
@@ -3824,11 +3824,11 @@
       <c r="AH26" s="11">
         <v>0</v>
       </c>
-      <c r="AI26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="11">
-        <v>0</v>
+      <c r="AI26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK26" s="11" t="s">
         <v>58</v>
@@ -3854,20 +3854,20 @@
       <c r="AR26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW26" s="11" t="s">
-        <v>58</v>
+      <c r="AS26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="11">
+        <v>0</v>
       </c>
       <c r="AX26" s="11">
         <v>0</v>
@@ -3953,11 +3953,11 @@
       <c r="X27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>58</v>
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
       </c>
       <c r="AA27" s="13">
         <v>0</v>
@@ -3983,11 +3983,11 @@
       <c r="AH27" s="13">
         <v>0</v>
       </c>
-      <c r="AI27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="13">
-        <v>0</v>
+      <c r="AI27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK27" s="13" t="s">
         <v>58</v>
@@ -4013,20 +4013,20 @@
       <c r="AR27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW27" s="13" t="s">
-        <v>58</v>
+      <c r="AS27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="13">
+        <v>0</v>
       </c>
       <c r="AX27" s="13">
         <v>0</v>
@@ -4115,11 +4115,11 @@
       <c r="Y28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>58</v>
+      <c r="Z28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>0</v>
       </c>
       <c r="AB28" s="11">
         <v>0</v>
@@ -4142,11 +4142,11 @@
       <c r="AH28" s="11">
         <v>0</v>
       </c>
-      <c r="AI28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="11">
-        <v>0</v>
+      <c r="AI28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK28" s="11" t="s">
         <v>58</v>
@@ -4172,20 +4172,20 @@
       <c r="AR28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW28" s="11" t="s">
-        <v>58</v>
+      <c r="AS28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="11">
+        <v>0</v>
       </c>
       <c r="AX28" s="11">
         <v>0</v>
@@ -4271,14 +4271,14 @@
       <c r="X29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="13" t="s">
-        <v>58</v>
+      <c r="Y29" s="13">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>0</v>
       </c>
       <c r="AA29" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="13">
         <v>0</v>
@@ -4301,11 +4301,11 @@
       <c r="AH29" s="13">
         <v>0</v>
       </c>
-      <c r="AI29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="13">
-        <v>0</v>
+      <c r="AI29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK29" s="13" t="s">
         <v>58</v>
@@ -4331,20 +4331,20 @@
       <c r="AR29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW29" s="13" t="s">
-        <v>58</v>
+      <c r="AS29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="13">
+        <v>0</v>
       </c>
       <c r="AX29" s="13">
         <v>0</v>
@@ -4490,8 +4490,8 @@
       <c r="AR30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS30" s="11" t="s">
-        <v>58</v>
+      <c r="AS30" s="11">
+        <v>0</v>
       </c>
       <c r="AT30" s="11" t="s">
         <v>58</v>
@@ -4588,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="Y31" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="15">
         <v>0</v>
       </c>
       <c r="AA31" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="15">
         <v>0</v>
@@ -4801,11 +4801,11 @@
       <c r="X33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="19" t="s">
-        <v>58</v>
+      <c r="Y33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>0</v>
       </c>
       <c r="AA33" s="19">
         <v>0</v>
@@ -4959,94 +4959,94 @@
         <v>0</v>
       </c>
       <c r="Y34" s="15">
-        <v>0</v>
+        <v>4106</v>
       </c>
       <c r="Z34" s="15">
-        <v>0</v>
+        <v>3361</v>
       </c>
       <c r="AA34" s="15">
-        <v>4106</v>
+        <v>4207</v>
       </c>
       <c r="AB34" s="15">
-        <v>3361</v>
+        <v>3061</v>
       </c>
       <c r="AC34" s="15">
-        <v>4207</v>
+        <v>3473</v>
       </c>
       <c r="AD34" s="15">
-        <v>3061</v>
+        <v>3511</v>
       </c>
       <c r="AE34" s="15">
-        <v>3473</v>
+        <v>4115</v>
       </c>
       <c r="AF34" s="15">
-        <v>3511</v>
+        <v>3541</v>
       </c>
       <c r="AG34" s="15">
-        <v>4115</v>
+        <v>4022</v>
       </c>
       <c r="AH34" s="15">
-        <v>3541</v>
+        <v>3969</v>
       </c>
       <c r="AI34" s="15">
-        <v>4022</v>
+        <v>3489</v>
       </c>
       <c r="AJ34" s="15">
-        <v>3969</v>
+        <v>3519</v>
       </c>
       <c r="AK34" s="15">
-        <v>3489</v>
+        <v>3498</v>
       </c>
       <c r="AL34" s="15">
-        <v>3519</v>
+        <v>3308</v>
       </c>
       <c r="AM34" s="15">
-        <v>3498</v>
+        <v>3836</v>
       </c>
       <c r="AN34" s="15">
-        <v>3308</v>
+        <v>3381</v>
       </c>
       <c r="AO34" s="15">
-        <v>3836</v>
+        <v>3164</v>
       </c>
       <c r="AP34" s="15">
-        <v>3381</v>
+        <v>3251</v>
       </c>
       <c r="AQ34" s="15">
-        <v>3164</v>
+        <v>3476</v>
       </c>
       <c r="AR34" s="15">
-        <v>3251</v>
+        <v>3156</v>
       </c>
       <c r="AS34" s="15">
-        <v>3476</v>
+        <v>2962</v>
       </c>
       <c r="AT34" s="15">
-        <v>3156</v>
+        <v>3191</v>
       </c>
       <c r="AU34" s="15">
-        <v>2962</v>
+        <v>3036</v>
       </c>
       <c r="AV34" s="15">
-        <v>3191</v>
+        <v>2886</v>
       </c>
       <c r="AW34" s="15">
-        <v>3036</v>
+        <v>2795</v>
       </c>
       <c r="AX34" s="15">
-        <v>2886</v>
+        <v>2952</v>
       </c>
       <c r="AY34" s="15">
-        <v>2795</v>
+        <v>2899</v>
       </c>
       <c r="AZ34" s="15">
-        <v>2952</v>
+        <v>2684</v>
       </c>
       <c r="BA34" s="15">
-        <v>2899</v>
+        <v>2817</v>
       </c>
       <c r="BB34" s="15">
-        <v>2684</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -5551,95 +5551,95 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>1319</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>148</v>
       </c>
       <c r="AA41" s="11">
-        <v>1319</v>
+        <v>1091</v>
       </c>
       <c r="AB41" s="11">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="11">
-        <v>1091</v>
+        <v>438</v>
       </c>
       <c r="AD41" s="11">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="AE41" s="11">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="AF41" s="11">
-        <v>565</v>
+        <v>66</v>
       </c>
       <c r="AG41" s="11">
-        <v>386</v>
+        <v>870</v>
       </c>
       <c r="AH41" s="11">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="AI41" s="11">
-        <v>870</v>
+        <v>191</v>
       </c>
       <c r="AJ41" s="11">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="AK41" s="11">
-        <v>191</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>282</v>
+        <v>4</v>
+      </c>
+      <c r="AL41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM41" s="11">
-        <v>4</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>27</v>
       </c>
       <c r="AO41" s="11">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AP41" s="11">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AQ41" s="11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AR41" s="11">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="AS41" s="11">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AT41" s="11">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>35</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>3</v>
+      </c>
+      <c r="AX41" s="11">
         <v>12</v>
       </c>
-      <c r="AV41" s="11">
-        <v>16</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>35</v>
-      </c>
       <c r="AY41" s="11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AZ41" s="11">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="BA41" s="11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB41" s="11">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5710,95 +5710,95 @@
       <c r="X42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
+      <c r="Y42" s="13">
+        <v>140</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>130</v>
       </c>
       <c r="AA42" s="13">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="AB42" s="13">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AC42" s="13">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AD42" s="13">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="AE42" s="13">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="AF42" s="13">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AG42" s="13">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH42" s="13">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AI42" s="13">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AJ42" s="13">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="AK42" s="13">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AL42" s="13">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="AM42" s="13">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AN42" s="13">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AO42" s="13">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AP42" s="13">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AQ42" s="13">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AR42" s="13">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AS42" s="13">
+        <v>98</v>
+      </c>
+      <c r="AT42" s="13">
+        <v>115</v>
+      </c>
+      <c r="AU42" s="13">
+        <v>115</v>
+      </c>
+      <c r="AV42" s="13">
         <v>76</v>
       </c>
-      <c r="AT42" s="13">
-        <v>98</v>
-      </c>
-      <c r="AU42" s="13">
-        <v>98</v>
-      </c>
-      <c r="AV42" s="13">
-        <v>115</v>
-      </c>
       <c r="AW42" s="13">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="AX42" s="13">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AY42" s="13">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AZ42" s="13">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BA42" s="13">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BB42" s="13">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5869,95 +5869,95 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>1215</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>1304</v>
       </c>
       <c r="AA43" s="11">
-        <v>1215</v>
+        <v>1148</v>
       </c>
       <c r="AB43" s="11">
-        <v>1304</v>
+        <v>1025</v>
       </c>
       <c r="AC43" s="11">
-        <v>1148</v>
+        <v>942</v>
       </c>
       <c r="AD43" s="11">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="AE43" s="11">
-        <v>942</v>
+        <v>1001</v>
       </c>
       <c r="AF43" s="11">
-        <v>1011</v>
+        <v>1132</v>
       </c>
       <c r="AG43" s="11">
-        <v>1001</v>
+        <v>1386</v>
       </c>
       <c r="AH43" s="11">
-        <v>1132</v>
+        <v>1427</v>
       </c>
       <c r="AI43" s="11">
-        <v>1386</v>
+        <v>1232</v>
       </c>
       <c r="AJ43" s="11">
-        <v>1427</v>
+        <v>1537</v>
       </c>
       <c r="AK43" s="11">
-        <v>1232</v>
+        <v>1636</v>
       </c>
       <c r="AL43" s="11">
-        <v>1537</v>
+        <v>1483</v>
       </c>
       <c r="AM43" s="11">
-        <v>1636</v>
+        <v>1582</v>
       </c>
       <c r="AN43" s="11">
-        <v>1483</v>
+        <v>1117</v>
       </c>
       <c r="AO43" s="11">
-        <v>1582</v>
+        <v>987</v>
       </c>
       <c r="AP43" s="11">
-        <v>1117</v>
+        <v>919</v>
       </c>
       <c r="AQ43" s="11">
-        <v>987</v>
+        <v>1219</v>
       </c>
       <c r="AR43" s="11">
-        <v>919</v>
+        <v>813</v>
       </c>
       <c r="AS43" s="11">
-        <v>1219</v>
+        <v>1313</v>
       </c>
       <c r="AT43" s="11">
-        <v>813</v>
+        <v>1408</v>
       </c>
       <c r="AU43" s="11">
-        <v>1313</v>
+        <v>1078</v>
       </c>
       <c r="AV43" s="11">
-        <v>1408</v>
+        <v>1374</v>
       </c>
       <c r="AW43" s="11">
-        <v>1078</v>
+        <v>1119</v>
       </c>
       <c r="AX43" s="11">
-        <v>1374</v>
+        <v>1162</v>
       </c>
       <c r="AY43" s="11">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1162</v>
+        <v>938</v>
       </c>
       <c r="BA43" s="11">
-        <v>1108</v>
+        <v>780</v>
       </c>
       <c r="BB43" s="11">
-        <v>938</v>
+        <v>877</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6028,95 +6028,95 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>79</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>71</v>
       </c>
       <c r="AA44" s="13">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AB44" s="13">
+        <v>68</v>
+      </c>
+      <c r="AC44" s="13">
+        <v>78</v>
+      </c>
+      <c r="AD44" s="13">
+        <v>88</v>
+      </c>
+      <c r="AE44" s="13">
+        <v>74</v>
+      </c>
+      <c r="AF44" s="13">
+        <v>75</v>
+      </c>
+      <c r="AG44" s="13">
+        <v>85</v>
+      </c>
+      <c r="AH44" s="13">
+        <v>90</v>
+      </c>
+      <c r="AI44" s="13">
+        <v>69</v>
+      </c>
+      <c r="AJ44" s="13">
+        <v>67</v>
+      </c>
+      <c r="AK44" s="13">
+        <v>65</v>
+      </c>
+      <c r="AL44" s="13">
+        <v>64</v>
+      </c>
+      <c r="AM44" s="13">
+        <v>69</v>
+      </c>
+      <c r="AN44" s="13">
         <v>71</v>
       </c>
-      <c r="AC44" s="13">
+      <c r="AO44" s="13">
         <v>71</v>
       </c>
-      <c r="AD44" s="13">
+      <c r="AP44" s="13">
+        <v>70</v>
+      </c>
+      <c r="AQ44" s="13">
         <v>68</v>
       </c>
-      <c r="AE44" s="13">
-        <v>78</v>
-      </c>
-      <c r="AF44" s="13">
-        <v>88</v>
-      </c>
-      <c r="AG44" s="13">
-        <v>74</v>
-      </c>
-      <c r="AH44" s="13">
-        <v>75</v>
-      </c>
-      <c r="AI44" s="13">
-        <v>85</v>
-      </c>
-      <c r="AJ44" s="13">
-        <v>90</v>
-      </c>
-      <c r="AK44" s="13">
-        <v>69</v>
-      </c>
-      <c r="AL44" s="13">
+      <c r="AR44" s="13">
+        <v>62</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>76</v>
+      </c>
+      <c r="AT44" s="13">
+        <v>80</v>
+      </c>
+      <c r="AU44" s="13">
         <v>67</v>
       </c>
-      <c r="AM44" s="13">
-        <v>65</v>
-      </c>
-      <c r="AN44" s="13">
+      <c r="AV44" s="13">
+        <v>50</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>50</v>
+      </c>
+      <c r="AX44" s="13">
+        <v>55</v>
+      </c>
+      <c r="AY44" s="13">
+        <v>59</v>
+      </c>
+      <c r="AZ44" s="13">
         <v>64</v>
       </c>
-      <c r="AO44" s="13">
-        <v>69</v>
-      </c>
-      <c r="AP44" s="13">
-        <v>71</v>
-      </c>
-      <c r="AQ44" s="13">
-        <v>71</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>70</v>
-      </c>
-      <c r="AS44" s="13">
+      <c r="BA44" s="13">
+        <v>62</v>
+      </c>
+      <c r="BB44" s="13">
         <v>68</v>
-      </c>
-      <c r="AT44" s="13">
-        <v>62</v>
-      </c>
-      <c r="AU44" s="13">
-        <v>76</v>
-      </c>
-      <c r="AV44" s="13">
-        <v>80</v>
-      </c>
-      <c r="AW44" s="13">
-        <v>67</v>
-      </c>
-      <c r="AX44" s="13">
-        <v>50</v>
-      </c>
-      <c r="AY44" s="13">
-        <v>50</v>
-      </c>
-      <c r="AZ44" s="13">
-        <v>55</v>
-      </c>
-      <c r="BA44" s="13">
-        <v>59</v>
-      </c>
-      <c r="BB44" s="13">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6187,95 +6187,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>970</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>961</v>
       </c>
       <c r="AA45" s="11">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="AB45" s="11">
-        <v>961</v>
+        <v>1117</v>
       </c>
       <c r="AC45" s="11">
-        <v>953</v>
+        <v>1153</v>
       </c>
       <c r="AD45" s="11">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="AE45" s="11">
-        <v>1153</v>
+        <v>1056</v>
       </c>
       <c r="AF45" s="11">
-        <v>1108</v>
+        <v>791</v>
       </c>
       <c r="AG45" s="11">
-        <v>1056</v>
+        <v>1226</v>
       </c>
       <c r="AH45" s="11">
-        <v>791</v>
+        <v>864</v>
       </c>
       <c r="AI45" s="11">
-        <v>1226</v>
+        <v>1081</v>
       </c>
       <c r="AJ45" s="11">
-        <v>864</v>
+        <v>1006</v>
       </c>
       <c r="AK45" s="11">
-        <v>1081</v>
+        <v>988</v>
       </c>
       <c r="AL45" s="11">
-        <v>1006</v>
+        <v>738</v>
       </c>
       <c r="AM45" s="11">
-        <v>988</v>
+        <v>919</v>
       </c>
       <c r="AN45" s="11">
-        <v>738</v>
+        <v>975</v>
       </c>
       <c r="AO45" s="11">
-        <v>919</v>
+        <v>782</v>
       </c>
       <c r="AP45" s="11">
-        <v>975</v>
+        <v>816</v>
       </c>
       <c r="AQ45" s="11">
-        <v>782</v>
+        <v>1493</v>
       </c>
       <c r="AR45" s="11">
-        <v>816</v>
+        <v>594</v>
       </c>
       <c r="AS45" s="11">
-        <v>1493</v>
+        <v>379</v>
       </c>
       <c r="AT45" s="11">
-        <v>594</v>
+        <v>648</v>
       </c>
       <c r="AU45" s="11">
-        <v>379</v>
+        <v>668</v>
       </c>
       <c r="AV45" s="11">
-        <v>648</v>
+        <v>720</v>
       </c>
       <c r="AW45" s="11">
-        <v>668</v>
+        <v>706</v>
       </c>
       <c r="AX45" s="11">
-        <v>720</v>
+        <v>551</v>
       </c>
       <c r="AY45" s="11">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="AZ45" s="11">
-        <v>551</v>
+        <v>764</v>
       </c>
       <c r="BA45" s="11">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BB45" s="11">
-        <v>764</v>
+        <v>701</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6346,95 +6346,95 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>207</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>154</v>
       </c>
       <c r="AA46" s="13">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="AB46" s="13">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="AC46" s="13">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="AD46" s="13">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="AE46" s="13">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="AF46" s="13">
+        <v>234</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>65</v>
+      </c>
+      <c r="AH46" s="13">
+        <v>113</v>
+      </c>
+      <c r="AI46" s="13">
+        <v>58</v>
+      </c>
+      <c r="AJ46" s="13">
+        <v>23</v>
+      </c>
+      <c r="AK46" s="13">
+        <v>81</v>
+      </c>
+      <c r="AL46" s="13">
+        <v>67</v>
+      </c>
+      <c r="AM46" s="13">
+        <v>22</v>
+      </c>
+      <c r="AN46" s="13">
+        <v>55</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>195</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>121</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>210</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>89</v>
+      </c>
+      <c r="AS46" s="13">
         <v>170</v>
       </c>
-      <c r="AG46" s="13">
-        <v>203</v>
-      </c>
-      <c r="AH46" s="13">
-        <v>234</v>
-      </c>
-      <c r="AI46" s="13">
-        <v>65</v>
-      </c>
-      <c r="AJ46" s="13">
-        <v>113</v>
-      </c>
-      <c r="AK46" s="13">
-        <v>58</v>
-      </c>
-      <c r="AL46" s="13">
-        <v>23</v>
-      </c>
-      <c r="AM46" s="13">
-        <v>81</v>
-      </c>
-      <c r="AN46" s="13">
-        <v>67</v>
-      </c>
-      <c r="AO46" s="13">
-        <v>22</v>
-      </c>
-      <c r="AP46" s="13">
-        <v>55</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>195</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>121</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>210</v>
-      </c>
       <c r="AT46" s="13">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="AU46" s="13">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AV46" s="13">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="AW46" s="13">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AX46" s="13">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="AY46" s="13">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="AZ46" s="13">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="BA46" s="13">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="BB46" s="13">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6505,95 +6505,95 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>227</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>350</v>
       </c>
       <c r="AA47" s="11">
-        <v>227</v>
+        <v>743</v>
       </c>
       <c r="AB47" s="11">
-        <v>350</v>
+        <v>618</v>
       </c>
       <c r="AC47" s="11">
-        <v>743</v>
+        <v>669</v>
       </c>
       <c r="AD47" s="11">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="AE47" s="11">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="AF47" s="11">
-        <v>624</v>
+        <v>796</v>
       </c>
       <c r="AG47" s="11">
-        <v>765</v>
+        <v>687</v>
       </c>
       <c r="AH47" s="11">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="AI47" s="11">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="AJ47" s="11">
-        <v>829</v>
+        <v>426</v>
       </c>
       <c r="AK47" s="11">
-        <v>655</v>
+        <v>517</v>
       </c>
       <c r="AL47" s="11">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="AM47" s="11">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="AN47" s="11">
+        <v>702</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>632</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>597</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>679</v>
+      </c>
+      <c r="AR47" s="11">
+        <v>475</v>
+      </c>
+      <c r="AS47" s="11">
         <v>580</v>
       </c>
-      <c r="AO47" s="11">
-        <v>569</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>702</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>632</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>597</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>679</v>
-      </c>
       <c r="AT47" s="11">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="AU47" s="11">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="AV47" s="11">
-        <v>523</v>
+        <v>368</v>
       </c>
       <c r="AW47" s="11">
-        <v>646</v>
+        <v>588</v>
       </c>
       <c r="AX47" s="11">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="AY47" s="11">
-        <v>588</v>
+        <v>484</v>
       </c>
       <c r="AZ47" s="11">
-        <v>514</v>
+        <v>660</v>
       </c>
       <c r="BA47" s="11">
-        <v>484</v>
+        <v>757</v>
       </c>
       <c r="BB47" s="11">
-        <v>660</v>
+        <v>882</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6664,95 +6664,95 @@
       <c r="X48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z48" s="13" t="s">
-        <v>58</v>
+      <c r="Y48" s="13">
+        <v>225</v>
+      </c>
+      <c r="Z48" s="13">
+        <v>297</v>
       </c>
       <c r="AA48" s="13">
+        <v>115</v>
+      </c>
+      <c r="AB48" s="13">
+        <v>394</v>
+      </c>
+      <c r="AC48" s="13">
+        <v>290</v>
+      </c>
+      <c r="AD48" s="13">
+        <v>265</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>285</v>
+      </c>
+      <c r="AF48" s="13">
+        <v>250</v>
+      </c>
+      <c r="AG48" s="13">
         <v>225</v>
       </c>
-      <c r="AB48" s="13">
-        <v>297</v>
-      </c>
-      <c r="AC48" s="13">
-        <v>115</v>
-      </c>
-      <c r="AD48" s="13">
-        <v>394</v>
-      </c>
-      <c r="AE48" s="13">
-        <v>290</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>265</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>285</v>
-      </c>
       <c r="AH48" s="13">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="AI48" s="13">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="AJ48" s="13">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AK48" s="13">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="AL48" s="13">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="AM48" s="13">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="AN48" s="13">
-        <v>54</v>
+        <v>404</v>
       </c>
       <c r="AO48" s="13">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="AP48" s="13">
-        <v>404</v>
+        <v>162</v>
       </c>
       <c r="AQ48" s="13">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="AR48" s="13">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="AS48" s="13">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="AT48" s="13">
+        <v>325</v>
+      </c>
+      <c r="AU48" s="13">
+        <v>85</v>
+      </c>
+      <c r="AV48" s="13">
+        <v>194</v>
+      </c>
+      <c r="AW48" s="13">
+        <v>131</v>
+      </c>
+      <c r="AX48" s="13">
+        <v>241</v>
+      </c>
+      <c r="AY48" s="13">
+        <v>136</v>
+      </c>
+      <c r="AZ48" s="13">
         <v>201</v>
       </c>
-      <c r="AU48" s="13">
-        <v>305</v>
-      </c>
-      <c r="AV48" s="13">
-        <v>325</v>
-      </c>
-      <c r="AW48" s="13">
-        <v>85</v>
-      </c>
-      <c r="AX48" s="13">
-        <v>194</v>
-      </c>
-      <c r="AY48" s="13">
-        <v>131</v>
-      </c>
-      <c r="AZ48" s="13">
-        <v>241</v>
-      </c>
       <c r="BA48" s="13">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="BB48" s="13">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6823,38 +6823,38 @@
       <c r="X49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>58</v>
+      <c r="Y49" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>6</v>
       </c>
       <c r="AA49" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB49" s="11">
+        <v>154</v>
+      </c>
+      <c r="AC49" s="11">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>4</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>16</v>
+      </c>
+      <c r="AH49" s="11">
         <v>6</v>
       </c>
-      <c r="AC49" s="11">
-        <v>3</v>
-      </c>
-      <c r="AD49" s="11">
-        <v>154</v>
-      </c>
-      <c r="AE49" s="11">
+      <c r="AI49" s="11">
         <v>4</v>
-      </c>
-      <c r="AF49" s="11">
-        <v>5</v>
-      </c>
-      <c r="AG49" s="11">
-        <v>11</v>
-      </c>
-      <c r="AH49" s="11">
-        <v>4</v>
-      </c>
-      <c r="AI49" s="11">
-        <v>16</v>
       </c>
       <c r="AJ49" s="11">
         <v>6</v>
@@ -6863,55 +6863,55 @@
         <v>4</v>
       </c>
       <c r="AL49" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM49" s="11">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AN49" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO49" s="11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AP49" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AQ49" s="11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AR49" s="11">
         <v>8</v>
       </c>
       <c r="AS49" s="11">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AT49" s="11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AU49" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV49" s="11">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="AW49" s="11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AX49" s="11">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="AY49" s="11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ49" s="11">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="BA49" s="11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BB49" s="11">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6981,94 +6981,94 @@
         <v>0</v>
       </c>
       <c r="Y50" s="15">
-        <v>0</v>
+        <v>4384</v>
       </c>
       <c r="Z50" s="15">
-        <v>0</v>
+        <v>3421</v>
       </c>
       <c r="AA50" s="15">
-        <v>4384</v>
+        <v>4349</v>
       </c>
       <c r="AB50" s="15">
-        <v>3421</v>
+        <v>3623</v>
       </c>
       <c r="AC50" s="15">
-        <v>4349</v>
+        <v>3843</v>
       </c>
       <c r="AD50" s="15">
-        <v>3623</v>
+        <v>3930</v>
       </c>
       <c r="AE50" s="15">
-        <v>3843</v>
+        <v>3867</v>
       </c>
       <c r="AF50" s="15">
-        <v>3930</v>
+        <v>3432</v>
       </c>
       <c r="AG50" s="15">
-        <v>3867</v>
+        <v>4637</v>
       </c>
       <c r="AH50" s="15">
-        <v>3432</v>
+        <v>3837</v>
       </c>
       <c r="AI50" s="15">
-        <v>4637</v>
+        <v>3667</v>
       </c>
       <c r="AJ50" s="15">
-        <v>3837</v>
+        <v>3670</v>
       </c>
       <c r="AK50" s="15">
-        <v>3667</v>
+        <v>3586</v>
       </c>
       <c r="AL50" s="15">
-        <v>3670</v>
+        <v>3082</v>
       </c>
       <c r="AM50" s="15">
-        <v>3586</v>
+        <v>3425</v>
       </c>
       <c r="AN50" s="15">
-        <v>3082</v>
+        <v>3441</v>
       </c>
       <c r="AO50" s="15">
-        <v>3425</v>
+        <v>3088</v>
       </c>
       <c r="AP50" s="15">
-        <v>3441</v>
+        <v>2808</v>
       </c>
       <c r="AQ50" s="15">
-        <v>3088</v>
+        <v>4035</v>
       </c>
       <c r="AR50" s="15">
-        <v>2808</v>
+        <v>2437</v>
       </c>
       <c r="AS50" s="15">
-        <v>4035</v>
+        <v>2947</v>
       </c>
       <c r="AT50" s="15">
-        <v>2437</v>
+        <v>3347</v>
       </c>
       <c r="AU50" s="15">
-        <v>2947</v>
+        <v>2721</v>
       </c>
       <c r="AV50" s="15">
-        <v>3347</v>
+        <v>2924</v>
       </c>
       <c r="AW50" s="15">
-        <v>2721</v>
+        <v>2863</v>
       </c>
       <c r="AX50" s="15">
-        <v>2924</v>
+        <v>2701</v>
       </c>
       <c r="AY50" s="15">
-        <v>2863</v>
+        <v>2716</v>
       </c>
       <c r="AZ50" s="15">
-        <v>2701</v>
+        <v>2820</v>
       </c>
       <c r="BA50" s="15">
-        <v>2716</v>
+        <v>2733</v>
       </c>
       <c r="BB50" s="15">
-        <v>2820</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7223,14 +7223,14 @@
       <c r="AG52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH52" s="11" t="s">
-        <v>58</v>
+      <c r="AH52" s="11">
+        <v>0</v>
       </c>
       <c r="AI52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ52" s="11">
-        <v>0</v>
+      <c r="AJ52" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK52" s="11" t="s">
         <v>58</v>
@@ -7256,8 +7256,8 @@
       <c r="AR52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS52" s="11" t="s">
-        <v>58</v>
+      <c r="AS52" s="11">
+        <v>0</v>
       </c>
       <c r="AT52" s="11" t="s">
         <v>58</v>
@@ -7355,11 +7355,11 @@
       <c r="X53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="13" t="s">
-        <v>58</v>
+      <c r="Y53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
       </c>
       <c r="AA53" s="13">
         <v>0</v>
@@ -7385,23 +7385,23 @@
       <c r="AH53" s="13">
         <v>0</v>
       </c>
-      <c r="AI53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="13">
-        <v>0</v>
+      <c r="AI53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL53" s="13" t="s">
-        <v>58</v>
+      <c r="AL53" s="13">
+        <v>-1</v>
       </c>
       <c r="AM53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN53" s="13">
-        <v>-1</v>
+      <c r="AN53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO53" s="13" t="s">
         <v>58</v>
@@ -7415,20 +7415,20 @@
       <c r="AR53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW53" s="13" t="s">
-        <v>58</v>
+      <c r="AS53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="13">
+        <v>0</v>
       </c>
       <c r="AX53" s="13">
         <v>0</v>
@@ -7514,11 +7514,11 @@
       <c r="X54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>58</v>
+      <c r="Y54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0</v>
       </c>
       <c r="AA54" s="11">
         <v>0</v>
@@ -7544,23 +7544,23 @@
       <c r="AH54" s="11">
         <v>0</v>
       </c>
-      <c r="AI54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="11">
-        <v>0</v>
+      <c r="AI54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL54" s="11" t="s">
-        <v>58</v>
+      <c r="AL54" s="11">
+        <v>-11</v>
       </c>
       <c r="AM54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN54" s="11">
-        <v>-11</v>
+      <c r="AN54" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO54" s="11" t="s">
         <v>58</v>
@@ -7574,20 +7574,20 @@
       <c r="AR54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW54" s="11" t="s">
-        <v>58</v>
+      <c r="AS54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="11">
+        <v>0</v>
       </c>
       <c r="AX54" s="11">
         <v>0</v>
@@ -7700,14 +7700,14 @@
       <c r="AG55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="13" t="s">
-        <v>58</v>
+      <c r="AH55" s="13">
+        <v>0</v>
       </c>
       <c r="AI55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ55" s="13">
-        <v>0</v>
+      <c r="AJ55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK55" s="13" t="s">
         <v>58</v>
@@ -7733,8 +7733,8 @@
       <c r="AR55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS55" s="13" t="s">
-        <v>58</v>
+      <c r="AS55" s="13">
+        <v>0</v>
       </c>
       <c r="AT55" s="13" t="s">
         <v>58</v>
@@ -7832,11 +7832,11 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>0</v>
       </c>
       <c r="AA56" s="11">
         <v>0</v>
@@ -7862,23 +7862,23 @@
       <c r="AH56" s="11">
         <v>0</v>
       </c>
-      <c r="AI56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="11">
-        <v>0</v>
+      <c r="AI56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL56" s="11" t="s">
-        <v>58</v>
+      <c r="AL56" s="11">
+        <v>-7</v>
       </c>
       <c r="AM56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN56" s="11">
-        <v>-7</v>
+      <c r="AN56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO56" s="11" t="s">
         <v>58</v>
@@ -7892,20 +7892,20 @@
       <c r="AR56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW56" s="11" t="s">
-        <v>58</v>
+      <c r="AS56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="11">
+        <v>0</v>
       </c>
       <c r="AX56" s="11">
         <v>0</v>
@@ -7991,11 +7991,11 @@
       <c r="X57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="13" t="s">
-        <v>58</v>
+      <c r="Y57" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
       </c>
       <c r="AA57" s="13">
         <v>0</v>
@@ -8021,11 +8021,11 @@
       <c r="AH57" s="13">
         <v>0</v>
       </c>
-      <c r="AI57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="13">
-        <v>0</v>
+      <c r="AI57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK57" s="13" t="s">
         <v>58</v>
@@ -8051,20 +8051,20 @@
       <c r="AR57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW57" s="13" t="s">
-        <v>58</v>
+      <c r="AS57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="13">
+        <v>0</v>
       </c>
       <c r="AX57" s="13">
         <v>0</v>
@@ -8153,11 +8153,11 @@
       <c r="Y58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA58" s="11" t="s">
-        <v>58</v>
+      <c r="Z58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>0</v>
       </c>
       <c r="AB58" s="11">
         <v>0</v>
@@ -8180,23 +8180,23 @@
       <c r="AH58" s="11">
         <v>0</v>
       </c>
-      <c r="AI58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="11">
-        <v>0</v>
+      <c r="AI58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL58" s="11" t="s">
-        <v>58</v>
+      <c r="AL58" s="11">
+        <v>-1</v>
       </c>
       <c r="AM58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN58" s="11">
-        <v>-1</v>
+      <c r="AN58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO58" s="11" t="s">
         <v>58</v>
@@ -8210,20 +8210,20 @@
       <c r="AR58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW58" s="11" t="s">
-        <v>58</v>
+      <c r="AS58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="11">
+        <v>0</v>
       </c>
       <c r="AX58" s="11">
         <v>0</v>
@@ -8309,14 +8309,14 @@
       <c r="X59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="13" t="s">
-        <v>58</v>
+      <c r="Y59" s="13">
+        <v>50</v>
+      </c>
+      <c r="Z59" s="13">
+        <v>0</v>
       </c>
       <c r="AA59" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="13">
         <v>0</v>
@@ -8339,11 +8339,11 @@
       <c r="AH59" s="13">
         <v>0</v>
       </c>
-      <c r="AI59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="13">
-        <v>0</v>
+      <c r="AI59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK59" s="13" t="s">
         <v>58</v>
@@ -8369,20 +8369,20 @@
       <c r="AR59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW59" s="13" t="s">
-        <v>58</v>
+      <c r="AS59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="13">
+        <v>0</v>
       </c>
       <c r="AX59" s="13">
         <v>0</v>
@@ -8528,8 +8528,8 @@
       <c r="AR60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS60" s="11" t="s">
-        <v>58</v>
+      <c r="AS60" s="11">
+        <v>0</v>
       </c>
       <c r="AT60" s="11" t="s">
         <v>58</v>
@@ -8626,13 +8626,13 @@
         <v>0</v>
       </c>
       <c r="Y61" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z61" s="15">
         <v>0</v>
       </c>
       <c r="AA61" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="15">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0</v>
       </c>
       <c r="AL61" s="15">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AM61" s="15">
         <v>0</v>
       </c>
       <c r="AN61" s="15">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="15">
         <v>0</v>
@@ -8839,11 +8839,11 @@
       <c r="X63" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="19" t="s">
-        <v>58</v>
+      <c r="Y63" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="19">
+        <v>0</v>
       </c>
       <c r="AA63" s="19">
         <v>0</v>
@@ -9055,11 +9055,11 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>0</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
@@ -9085,11 +9085,11 @@
       <c r="AH65" s="11">
         <v>0</v>
       </c>
-      <c r="AI65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="11">
-        <v>0</v>
+      <c r="AI65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK65" s="11" t="s">
         <v>58</v>
@@ -9214,11 +9214,11 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>-1</v>
       </c>
       <c r="AA66" s="13">
         <v>-1</v>
@@ -9248,22 +9248,22 @@
         <v>-1</v>
       </c>
       <c r="AJ66" s="13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK66" s="13">
         <v>-1</v>
       </c>
-      <c r="AL66" s="13">
-        <v>-2</v>
+      <c r="AL66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM66" s="13">
         <v>-1</v>
       </c>
-      <c r="AN66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO66" s="13">
+      <c r="AN66" s="13">
         <v>-1</v>
+      </c>
+      <c r="AO66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP66" s="13">
         <v>-1</v>
@@ -9271,38 +9271,38 @@
       <c r="AQ66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR66" s="13">
+      <c r="AR66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU66" s="13">
         <v>-1</v>
       </c>
-      <c r="AS66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU66" s="13">
-        <v>0</v>
-      </c>
       <c r="AV66" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AW66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="13">
         <v>-1</v>
       </c>
-      <c r="AX66" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AY66" s="13">
         <v>0</v>
       </c>
       <c r="AZ66" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="13">
         <v>-1</v>
       </c>
-      <c r="BA66" s="13">
-        <v>0</v>
-      </c>
       <c r="BB66" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9373,38 +9373,38 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>-2</v>
       </c>
       <c r="AA67" s="11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB67" s="11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AC67" s="11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD67" s="11">
         <v>-3</v>
       </c>
       <c r="AE67" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AF67" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AG67" s="11">
         <v>-3</v>
       </c>
-      <c r="AF67" s="11">
-        <v>-3</v>
-      </c>
-      <c r="AG67" s="11">
+      <c r="AH67" s="11">
         <v>-4</v>
       </c>
-      <c r="AH67" s="11">
-        <v>-6</v>
-      </c>
       <c r="AI67" s="11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AJ67" s="11">
         <v>-4</v>
@@ -9412,38 +9412,38 @@
       <c r="AK67" s="11">
         <v>-4</v>
       </c>
-      <c r="AL67" s="11">
-        <v>-4</v>
+      <c r="AL67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM67" s="11">
-        <v>-4</v>
-      </c>
-      <c r="AN67" s="11" t="s">
-        <v>58</v>
+        <v>-3</v>
+      </c>
+      <c r="AN67" s="11">
+        <v>-3</v>
       </c>
       <c r="AO67" s="11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP67" s="11">
         <v>-3</v>
       </c>
       <c r="AQ67" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AR67" s="11">
         <v>-2</v>
-      </c>
-      <c r="AR67" s="11">
-        <v>-3</v>
       </c>
       <c r="AS67" s="11">
         <v>-3</v>
       </c>
       <c r="AT67" s="11">
+        <v>-3</v>
+      </c>
+      <c r="AU67" s="11">
         <v>-2</v>
       </c>
-      <c r="AU67" s="11">
-        <v>-3</v>
-      </c>
       <c r="AV67" s="11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AW67" s="11">
         <v>-2</v>
@@ -9452,16 +9452,16 @@
         <v>-2</v>
       </c>
       <c r="AY67" s="11">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AZ67" s="11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="BA67" s="11">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="BB67" s="11">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9532,11 +9532,11 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>0</v>
       </c>
       <c r="AA68" s="13">
         <v>0</v>
@@ -9562,11 +9562,11 @@
       <c r="AH68" s="13">
         <v>0</v>
       </c>
-      <c r="AI68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="13">
-        <v>0</v>
+      <c r="AI68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK68" s="13" t="s">
         <v>58</v>
@@ -9604,11 +9604,11 @@
       <c r="AV68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX68" s="13" t="s">
-        <v>58</v>
+      <c r="AW68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="13">
+        <v>0</v>
       </c>
       <c r="AY68" s="13">
         <v>0</v>
@@ -9616,8 +9616,8 @@
       <c r="AZ68" s="13">
         <v>0</v>
       </c>
-      <c r="BA68" s="13">
-        <v>0</v>
+      <c r="BA68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB68" s="13">
         <v>0</v>
@@ -9691,95 +9691,95 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>-5</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>-8</v>
       </c>
       <c r="AA69" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AB69" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AD69" s="11">
         <v>-5</v>
       </c>
-      <c r="AB69" s="11">
+      <c r="AE69" s="11">
         <v>-8</v>
       </c>
-      <c r="AC69" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AD69" s="11">
+      <c r="AF69" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AG69" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AH69" s="11">
+        <v>-4</v>
+      </c>
+      <c r="AI69" s="11">
         <v>-6</v>
       </c>
-      <c r="AE69" s="11">
+      <c r="AJ69" s="11">
         <v>-6</v>
-      </c>
-      <c r="AF69" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AG69" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AH69" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AI69" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AJ69" s="11">
-        <v>-4</v>
       </c>
       <c r="AK69" s="11">
         <v>-6</v>
       </c>
-      <c r="AL69" s="11">
+      <c r="AL69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM69" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AN69" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AO69" s="11">
+        <v>-10</v>
+      </c>
+      <c r="AP69" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AQ69" s="11">
         <v>-6</v>
       </c>
-      <c r="AM69" s="11">
-        <v>-6</v>
-      </c>
-      <c r="AN69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO69" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AP69" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AQ69" s="11">
-        <v>-10</v>
-      </c>
       <c r="AR69" s="11">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="AS69" s="11">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AT69" s="11">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AU69" s="11">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AV69" s="11">
         <v>-2</v>
       </c>
       <c r="AW69" s="11">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="AX69" s="11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AY69" s="11">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="AZ69" s="11">
         <v>-3</v>
       </c>
       <c r="BA69" s="11">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="BB69" s="11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9850,17 +9850,17 @@
       <c r="X70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z70" s="13" t="s">
-        <v>58</v>
+      <c r="Y70" s="13">
+        <v>-19</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>-37</v>
       </c>
       <c r="AA70" s="13">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="13">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="13">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="AF70" s="13">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="AG70" s="13">
         <v>0</v>
       </c>
       <c r="AH70" s="13">
-        <v>-16</v>
-      </c>
-      <c r="AI70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK70" s="13" t="s">
         <v>58</v>
@@ -9910,23 +9910,23 @@
       <c r="AR70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS70" s="13" t="s">
-        <v>58</v>
+      <c r="AS70" s="13">
+        <v>0</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU70" s="13">
-        <v>0</v>
+      <c r="AU70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX70" s="13" t="s">
-        <v>58</v>
+      <c r="AW70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="13">
+        <v>0</v>
       </c>
       <c r="AY70" s="13">
         <v>0</v>
@@ -9934,8 +9934,8 @@
       <c r="AZ70" s="13">
         <v>0</v>
       </c>
-      <c r="BA70" s="13">
-        <v>0</v>
+      <c r="BA70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB70" s="13">
         <v>0</v>
@@ -10009,23 +10009,23 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>-1</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>0</v>
       </c>
       <c r="AA71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="11">
         <v>-1</v>
       </c>
-      <c r="AB71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="11">
-        <v>0</v>
-      </c>
       <c r="AD71" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE71" s="11">
         <v>-1</v>
@@ -10048,8 +10048,8 @@
       <c r="AK71" s="11">
         <v>-1</v>
       </c>
-      <c r="AL71" s="11">
-        <v>-1</v>
+      <c r="AL71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM71" s="11">
         <v>-1</v>
@@ -10063,14 +10063,14 @@
       <c r="AP71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ71" s="11">
+      <c r="AQ71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR71" s="11">
         <v>-1</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AS71" s="11">
+        <v>0</v>
       </c>
       <c r="AT71" s="11">
         <v>-1</v>
@@ -10078,14 +10078,14 @@
       <c r="AU71" s="11">
         <v>0</v>
       </c>
-      <c r="AV71" s="11">
+      <c r="AV71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW71" s="11">
         <v>-1</v>
       </c>
-      <c r="AW71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX71" s="11" t="s">
-        <v>58</v>
+      <c r="AX71" s="11">
+        <v>0</v>
       </c>
       <c r="AY71" s="11">
         <v>-1</v>
@@ -10093,11 +10093,11 @@
       <c r="AZ71" s="11">
         <v>0</v>
       </c>
-      <c r="BA71" s="11">
-        <v>-1</v>
-      </c>
-      <c r="BB71" s="11">
-        <v>0</v>
+      <c r="BA71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB71" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -10168,11 +10168,11 @@
       <c r="X72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z72" s="13" t="s">
-        <v>58</v>
+      <c r="Y72" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="13">
+        <v>0</v>
       </c>
       <c r="AA72" s="13">
         <v>0</v>
@@ -10198,11 +10198,11 @@
       <c r="AH72" s="13">
         <v>0</v>
       </c>
-      <c r="AI72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="13">
-        <v>0</v>
+      <c r="AI72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK72" s="13" t="s">
         <v>58</v>
@@ -10213,14 +10213,14 @@
       <c r="AM72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN72" s="13" t="s">
-        <v>58</v>
+      <c r="AN72" s="13">
+        <v>-4</v>
       </c>
       <c r="AO72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP72" s="13">
-        <v>-4</v>
+      <c r="AP72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ72" s="13" t="s">
         <v>58</v>
@@ -10228,14 +10228,14 @@
       <c r="AR72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS72" s="13" t="s">
-        <v>58</v>
+      <c r="AS72" s="13">
+        <v>0</v>
       </c>
       <c r="AT72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU72" s="13">
-        <v>0</v>
+      <c r="AU72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV72" s="13" t="s">
         <v>58</v>
@@ -10243,17 +10243,17 @@
       <c r="AW72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX72" s="13" t="s">
-        <v>58</v>
+      <c r="AX72" s="13">
+        <v>-1</v>
       </c>
       <c r="AY72" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AZ72" s="13">
-        <v>-1</v>
-      </c>
-      <c r="BA72" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="BA72" s="13">
+        <v>-5</v>
       </c>
       <c r="BB72" s="13">
         <v>0</v>
@@ -10327,11 +10327,11 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>0</v>
       </c>
       <c r="AA73" s="11">
         <v>0</v>
@@ -10340,13 +10340,13 @@
         <v>0</v>
       </c>
       <c r="AC73" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD73" s="11">
         <v>0</v>
       </c>
       <c r="AE73" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="11">
         <v>0</v>
@@ -10357,11 +10357,11 @@
       <c r="AH73" s="11">
         <v>0</v>
       </c>
-      <c r="AI73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="11">
-        <v>0</v>
+      <c r="AI73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK73" s="11" t="s">
         <v>58</v>
@@ -10387,8 +10387,8 @@
       <c r="AR73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS73" s="11" t="s">
-        <v>58</v>
+      <c r="AS73" s="11">
+        <v>0</v>
       </c>
       <c r="AT73" s="11" t="s">
         <v>58</v>
@@ -10402,8 +10402,8 @@
       <c r="AW73" s="11">
         <v>0</v>
       </c>
-      <c r="AX73" s="11" t="s">
-        <v>58</v>
+      <c r="AX73" s="11">
+        <v>0</v>
       </c>
       <c r="AY73" s="11">
         <v>0</v>
@@ -10411,11 +10411,11 @@
       <c r="AZ73" s="11">
         <v>0</v>
       </c>
-      <c r="BA73" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB73" s="11">
-        <v>0</v>
+      <c r="BA73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB73" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10484,95 +10484,95 @@
       <c r="X74" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z74" s="15" t="s">
-        <v>58</v>
+      <c r="Y74" s="15">
+        <v>-27</v>
+      </c>
+      <c r="Z74" s="15">
+        <v>-48</v>
       </c>
       <c r="AA74" s="15">
-        <v>-27</v>
+        <v>-11</v>
       </c>
       <c r="AB74" s="15">
-        <v>-48</v>
+        <v>-10</v>
       </c>
       <c r="AC74" s="15">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="AD74" s="15">
         <v>-10</v>
       </c>
       <c r="AE74" s="15">
+        <v>-14</v>
+      </c>
+      <c r="AF74" s="15">
+        <v>-31</v>
+      </c>
+      <c r="AG74" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AH74" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AI74" s="15">
         <v>-12</v>
       </c>
-      <c r="AF74" s="15">
-        <v>-10</v>
-      </c>
-      <c r="AG74" s="15">
-        <v>-14</v>
-      </c>
-      <c r="AH74" s="15">
-        <v>-31</v>
-      </c>
-      <c r="AI74" s="15">
-        <v>-10</v>
-      </c>
       <c r="AJ74" s="15">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="AK74" s="15">
         <v>-12</v>
       </c>
       <c r="AL74" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AN74" s="15">
         <v>-13</v>
       </c>
-      <c r="AM74" s="15">
+      <c r="AO74" s="15">
+        <v>-13</v>
+      </c>
+      <c r="AP74" s="15">
         <v>-12</v>
       </c>
-      <c r="AN74" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO74" s="15">
+      <c r="AQ74" s="15">
+        <v>-9</v>
+      </c>
+      <c r="AR74" s="15">
+        <v>-7</v>
+      </c>
+      <c r="AS74" s="15">
         <v>-10</v>
       </c>
-      <c r="AP74" s="15">
-        <v>-13</v>
-      </c>
-      <c r="AQ74" s="15">
-        <v>-13</v>
-      </c>
-      <c r="AR74" s="15">
-        <v>-12</v>
-      </c>
-      <c r="AS74" s="15">
-        <v>-9</v>
-      </c>
       <c r="AT74" s="15">
+        <v>-6</v>
+      </c>
+      <c r="AU74" s="15">
+        <v>-5</v>
+      </c>
+      <c r="AV74" s="15">
+        <v>-4</v>
+      </c>
+      <c r="AW74" s="15">
+        <v>-10</v>
+      </c>
+      <c r="AX74" s="15">
         <v>-7</v>
       </c>
-      <c r="AU74" s="15">
-        <v>-10</v>
-      </c>
-      <c r="AV74" s="15">
-        <v>-6</v>
-      </c>
-      <c r="AW74" s="15">
-        <v>-5</v>
-      </c>
-      <c r="AX74" s="15">
-        <v>-4</v>
-      </c>
       <c r="AY74" s="15">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AZ74" s="15">
         <v>-7</v>
       </c>
       <c r="BA74" s="15">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="BB74" s="15">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10642,94 +10642,94 @@
         <v>0</v>
       </c>
       <c r="Y75" s="19">
-        <v>0</v>
+        <v>4407</v>
       </c>
       <c r="Z75" s="19">
-        <v>0</v>
+        <v>3373</v>
       </c>
       <c r="AA75" s="19">
-        <v>4407</v>
+        <v>4338</v>
       </c>
       <c r="AB75" s="19">
-        <v>3373</v>
+        <v>3613</v>
       </c>
       <c r="AC75" s="19">
-        <v>4338</v>
+        <v>3831</v>
       </c>
       <c r="AD75" s="19">
-        <v>3613</v>
+        <v>3920</v>
       </c>
       <c r="AE75" s="19">
-        <v>3831</v>
+        <v>3853</v>
       </c>
       <c r="AF75" s="19">
-        <v>3920</v>
+        <v>3401</v>
       </c>
       <c r="AG75" s="19">
-        <v>3853</v>
+        <v>4627</v>
       </c>
       <c r="AH75" s="19">
-        <v>3401</v>
+        <v>3827</v>
       </c>
       <c r="AI75" s="19">
-        <v>4627</v>
+        <v>3655</v>
       </c>
       <c r="AJ75" s="19">
-        <v>3827</v>
+        <v>3657</v>
       </c>
       <c r="AK75" s="19">
-        <v>3655</v>
+        <v>3574</v>
       </c>
       <c r="AL75" s="19">
-        <v>3657</v>
+        <v>3062</v>
       </c>
       <c r="AM75" s="19">
-        <v>3574</v>
+        <v>3415</v>
       </c>
       <c r="AN75" s="19">
-        <v>3062</v>
+        <v>3428</v>
       </c>
       <c r="AO75" s="19">
-        <v>3415</v>
+        <v>3075</v>
       </c>
       <c r="AP75" s="19">
-        <v>3428</v>
+        <v>2796</v>
       </c>
       <c r="AQ75" s="19">
-        <v>3075</v>
+        <v>4026</v>
       </c>
       <c r="AR75" s="19">
-        <v>2796</v>
+        <v>2430</v>
       </c>
       <c r="AS75" s="19">
-        <v>4026</v>
+        <v>2937</v>
       </c>
       <c r="AT75" s="19">
-        <v>2430</v>
+        <v>3341</v>
       </c>
       <c r="AU75" s="19">
-        <v>2937</v>
+        <v>2716</v>
       </c>
       <c r="AV75" s="19">
-        <v>3341</v>
+        <v>2920</v>
       </c>
       <c r="AW75" s="19">
-        <v>2716</v>
+        <v>2853</v>
       </c>
       <c r="AX75" s="19">
-        <v>2920</v>
+        <v>2694</v>
       </c>
       <c r="AY75" s="19">
-        <v>2853</v>
+        <v>2705</v>
       </c>
       <c r="AZ75" s="19">
-        <v>2694</v>
+        <v>2813</v>
       </c>
       <c r="BA75" s="19">
-        <v>2705</v>
+        <v>2723</v>
       </c>
       <c r="BB75" s="19">
-        <v>2813</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -11234,95 +11234,95 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>27045</v>
+      </c>
+      <c r="Z82" s="11">
+        <v>1438</v>
       </c>
       <c r="AA82" s="11">
-        <v>27045</v>
+        <v>13404</v>
       </c>
       <c r="AB82" s="11">
-        <v>1438</v>
+        <v>0</v>
       </c>
       <c r="AC82" s="11">
-        <v>13404</v>
+        <v>821</v>
       </c>
       <c r="AD82" s="11">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="AE82" s="11">
-        <v>821</v>
+        <v>579</v>
       </c>
       <c r="AF82" s="11">
-        <v>847</v>
+        <v>1097</v>
       </c>
       <c r="AG82" s="11">
-        <v>579</v>
+        <v>6686</v>
       </c>
       <c r="AH82" s="11">
-        <v>1097</v>
+        <v>521</v>
       </c>
       <c r="AI82" s="11">
-        <v>6686</v>
+        <v>4352</v>
       </c>
       <c r="AJ82" s="11">
-        <v>521</v>
+        <v>689</v>
       </c>
       <c r="AK82" s="11">
-        <v>4352</v>
+        <v>71</v>
       </c>
       <c r="AL82" s="11">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="11">
-        <v>71</v>
+        <v>532</v>
       </c>
       <c r="AN82" s="11">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="AO82" s="11">
-        <v>532</v>
+        <v>1260</v>
       </c>
       <c r="AP82" s="11">
-        <v>833</v>
+        <v>779</v>
       </c>
       <c r="AQ82" s="11">
-        <v>1260</v>
+        <v>1691</v>
       </c>
       <c r="AR82" s="11">
-        <v>779</v>
+        <v>3355</v>
       </c>
       <c r="AS82" s="11">
-        <v>1691</v>
+        <v>300</v>
       </c>
       <c r="AT82" s="11">
-        <v>3355</v>
+        <v>757</v>
       </c>
       <c r="AU82" s="11">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AV82" s="11">
-        <v>757</v>
+        <v>2422</v>
       </c>
       <c r="AW82" s="11">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AX82" s="11">
-        <v>2422</v>
+        <v>1108</v>
       </c>
       <c r="AY82" s="11">
-        <v>350</v>
+        <v>1116</v>
       </c>
       <c r="AZ82" s="11">
-        <v>1108</v>
+        <v>4471</v>
       </c>
       <c r="BA82" s="11">
-        <v>1116</v>
+        <v>729</v>
       </c>
       <c r="BB82" s="11">
-        <v>4471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11393,95 +11393,95 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>8908</v>
+      </c>
+      <c r="Z83" s="13">
+        <v>8948</v>
       </c>
       <c r="AA83" s="13">
-        <v>8908</v>
+        <v>7895</v>
       </c>
       <c r="AB83" s="13">
-        <v>8948</v>
+        <v>8350</v>
       </c>
       <c r="AC83" s="13">
-        <v>7895</v>
+        <v>8773</v>
       </c>
       <c r="AD83" s="13">
-        <v>8350</v>
+        <v>8827</v>
       </c>
       <c r="AE83" s="13">
-        <v>8773</v>
+        <v>8081</v>
       </c>
       <c r="AF83" s="13">
-        <v>8827</v>
+        <v>7942</v>
       </c>
       <c r="AG83" s="13">
-        <v>8081</v>
+        <v>7359</v>
       </c>
       <c r="AH83" s="13">
-        <v>7942</v>
+        <v>8608</v>
       </c>
       <c r="AI83" s="13">
-        <v>7359</v>
+        <v>9462</v>
       </c>
       <c r="AJ83" s="13">
-        <v>8608</v>
+        <v>11005</v>
       </c>
       <c r="AK83" s="13">
-        <v>9462</v>
+        <v>10971</v>
       </c>
       <c r="AL83" s="13">
-        <v>11005</v>
+        <v>10088</v>
       </c>
       <c r="AM83" s="13">
-        <v>10971</v>
+        <v>11773</v>
       </c>
       <c r="AN83" s="13">
-        <v>10088</v>
+        <v>11386</v>
       </c>
       <c r="AO83" s="13">
-        <v>11773</v>
+        <v>12243</v>
       </c>
       <c r="AP83" s="13">
-        <v>11386</v>
+        <v>12249</v>
       </c>
       <c r="AQ83" s="13">
-        <v>12243</v>
+        <v>9616</v>
       </c>
       <c r="AR83" s="13">
-        <v>12249</v>
+        <v>12478</v>
       </c>
       <c r="AS83" s="13">
-        <v>9616</v>
+        <v>12172</v>
       </c>
       <c r="AT83" s="13">
-        <v>12478</v>
+        <v>14463</v>
       </c>
       <c r="AU83" s="13">
-        <v>12172</v>
+        <v>17239</v>
       </c>
       <c r="AV83" s="13">
-        <v>14463</v>
+        <v>19501</v>
       </c>
       <c r="AW83" s="13">
-        <v>17239</v>
+        <v>15732</v>
       </c>
       <c r="AX83" s="13">
-        <v>19501</v>
+        <v>15216</v>
       </c>
       <c r="AY83" s="13">
-        <v>15732</v>
+        <v>14456</v>
       </c>
       <c r="AZ83" s="13">
-        <v>15216</v>
+        <v>13714</v>
       </c>
       <c r="BA83" s="13">
-        <v>14456</v>
+        <v>13199</v>
       </c>
       <c r="BB83" s="13">
-        <v>13714</v>
+        <v>12639</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11552,95 +11552,95 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>41644</v>
+      </c>
+      <c r="Z84" s="11">
+        <v>46787</v>
       </c>
       <c r="AA84" s="11">
-        <v>41644</v>
+        <v>38049</v>
       </c>
       <c r="AB84" s="11">
-        <v>46787</v>
+        <v>39085</v>
       </c>
       <c r="AC84" s="11">
-        <v>38049</v>
+        <v>36686</v>
       </c>
       <c r="AD84" s="11">
-        <v>39085</v>
+        <v>47572</v>
       </c>
       <c r="AE84" s="11">
-        <v>36686</v>
+        <v>44650</v>
       </c>
       <c r="AF84" s="11">
-        <v>47572</v>
+        <v>49648</v>
       </c>
       <c r="AG84" s="11">
-        <v>44650</v>
+        <v>60045</v>
       </c>
       <c r="AH84" s="11">
-        <v>49648</v>
+        <v>64338</v>
       </c>
       <c r="AI84" s="11">
-        <v>60045</v>
+        <v>57252</v>
       </c>
       <c r="AJ84" s="11">
-        <v>64338</v>
+        <v>75273</v>
       </c>
       <c r="AK84" s="11">
-        <v>57252</v>
+        <v>80107</v>
       </c>
       <c r="AL84" s="11">
-        <v>75273</v>
+        <v>78735</v>
       </c>
       <c r="AM84" s="11">
-        <v>80107</v>
+        <v>100883</v>
       </c>
       <c r="AN84" s="11">
-        <v>78735</v>
+        <v>69337</v>
       </c>
       <c r="AO84" s="11">
-        <v>100883</v>
+        <v>61704</v>
       </c>
       <c r="AP84" s="11">
-        <v>69337</v>
+        <v>57561</v>
       </c>
       <c r="AQ84" s="11">
-        <v>61704</v>
+        <v>73203</v>
       </c>
       <c r="AR84" s="11">
-        <v>57561</v>
+        <v>52661</v>
       </c>
       <c r="AS84" s="11">
-        <v>73203</v>
+        <v>84992</v>
       </c>
       <c r="AT84" s="11">
-        <v>52661</v>
+        <v>93733</v>
       </c>
       <c r="AU84" s="11">
-        <v>84992</v>
+        <v>83316</v>
       </c>
       <c r="AV84" s="11">
-        <v>93733</v>
+        <v>151319</v>
       </c>
       <c r="AW84" s="11">
-        <v>83316</v>
+        <v>123118</v>
       </c>
       <c r="AX84" s="11">
-        <v>151319</v>
+        <v>127837</v>
       </c>
       <c r="AY84" s="11">
-        <v>123118</v>
+        <v>122008</v>
       </c>
       <c r="AZ84" s="11">
-        <v>127837</v>
+        <v>103293</v>
       </c>
       <c r="BA84" s="11">
-        <v>122008</v>
+        <v>85882</v>
       </c>
       <c r="BB84" s="11">
-        <v>103293</v>
+        <v>96585</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11711,95 +11711,95 @@
       <c r="X85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z85" s="13" t="s">
-        <v>58</v>
+      <c r="Y85" s="13">
+        <v>9408</v>
+      </c>
+      <c r="Z85" s="13">
+        <v>9281</v>
       </c>
       <c r="AA85" s="13">
-        <v>9408</v>
+        <v>10050</v>
       </c>
       <c r="AB85" s="13">
-        <v>9281</v>
+        <v>9684</v>
       </c>
       <c r="AC85" s="13">
-        <v>10050</v>
+        <v>11604</v>
       </c>
       <c r="AD85" s="13">
-        <v>9684</v>
+        <v>13695</v>
       </c>
       <c r="AE85" s="13">
-        <v>11604</v>
+        <v>13250</v>
       </c>
       <c r="AF85" s="13">
-        <v>13695</v>
+        <v>13452</v>
       </c>
       <c r="AG85" s="13">
-        <v>13250</v>
+        <v>15161</v>
       </c>
       <c r="AH85" s="13">
-        <v>13452</v>
+        <v>16135</v>
       </c>
       <c r="AI85" s="13">
-        <v>15161</v>
+        <v>13823</v>
       </c>
       <c r="AJ85" s="13">
-        <v>16135</v>
+        <v>13761</v>
       </c>
       <c r="AK85" s="13">
-        <v>13823</v>
+        <v>13204</v>
       </c>
       <c r="AL85" s="13">
-        <v>13761</v>
+        <v>13097</v>
       </c>
       <c r="AM85" s="13">
-        <v>13204</v>
+        <v>14922</v>
       </c>
       <c r="AN85" s="13">
-        <v>13097</v>
+        <v>17505</v>
       </c>
       <c r="AO85" s="13">
-        <v>14922</v>
+        <v>17556</v>
       </c>
       <c r="AP85" s="13">
-        <v>17505</v>
+        <v>17097</v>
       </c>
       <c r="AQ85" s="13">
-        <v>17556</v>
+        <v>16857</v>
       </c>
       <c r="AR85" s="13">
-        <v>17097</v>
+        <v>15462</v>
       </c>
       <c r="AS85" s="13">
-        <v>16857</v>
+        <v>18743</v>
       </c>
       <c r="AT85" s="13">
-        <v>15462</v>
+        <v>20348</v>
       </c>
       <c r="AU85" s="13">
-        <v>18743</v>
+        <v>21730</v>
       </c>
       <c r="AV85" s="13">
-        <v>20348</v>
+        <v>24846</v>
       </c>
       <c r="AW85" s="13">
-        <v>21730</v>
+        <v>22123</v>
       </c>
       <c r="AX85" s="13">
-        <v>24846</v>
+        <v>24725</v>
       </c>
       <c r="AY85" s="13">
-        <v>22123</v>
+        <v>26420</v>
       </c>
       <c r="AZ85" s="13">
-        <v>24725</v>
+        <v>28543</v>
       </c>
       <c r="BA85" s="13">
-        <v>26420</v>
+        <v>27876</v>
       </c>
       <c r="BB85" s="13">
-        <v>28543</v>
+        <v>30479</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11870,95 +11870,95 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z86" s="11" t="s">
-        <v>58</v>
+      <c r="Y86" s="11">
+        <v>296966</v>
+      </c>
+      <c r="Z86" s="11">
+        <v>314995</v>
       </c>
       <c r="AA86" s="11">
-        <v>296966</v>
+        <v>302225</v>
       </c>
       <c r="AB86" s="11">
-        <v>314995</v>
+        <v>366449</v>
       </c>
       <c r="AC86" s="11">
-        <v>302225</v>
+        <v>452129</v>
       </c>
       <c r="AD86" s="11">
-        <v>366449</v>
+        <v>449210</v>
       </c>
       <c r="AE86" s="11">
-        <v>452129</v>
+        <v>454265</v>
       </c>
       <c r="AF86" s="11">
-        <v>449210</v>
+        <v>318306</v>
       </c>
       <c r="AG86" s="11">
-        <v>454265</v>
+        <v>475344</v>
       </c>
       <c r="AH86" s="11">
-        <v>318306</v>
+        <v>344900</v>
       </c>
       <c r="AI86" s="11">
-        <v>475344</v>
+        <v>479759</v>
       </c>
       <c r="AJ86" s="11">
-        <v>344900</v>
+        <v>456683</v>
       </c>
       <c r="AK86" s="11">
-        <v>479759</v>
+        <v>433965</v>
       </c>
       <c r="AL86" s="11">
-        <v>456683</v>
+        <v>373837</v>
       </c>
       <c r="AM86" s="11">
-        <v>433965</v>
+        <v>528193</v>
       </c>
       <c r="AN86" s="11">
-        <v>373837</v>
+        <v>560502</v>
       </c>
       <c r="AO86" s="11">
-        <v>528193</v>
+        <v>435013</v>
       </c>
       <c r="AP86" s="11">
-        <v>560502</v>
+        <v>478093</v>
       </c>
       <c r="AQ86" s="11">
-        <v>435013</v>
+        <v>754652</v>
       </c>
       <c r="AR86" s="11">
-        <v>478093</v>
+        <v>386934</v>
       </c>
       <c r="AS86" s="11">
-        <v>754652</v>
+        <v>225596</v>
       </c>
       <c r="AT86" s="11">
-        <v>386934</v>
+        <v>412710</v>
       </c>
       <c r="AU86" s="11">
-        <v>225596</v>
+        <v>482141</v>
       </c>
       <c r="AV86" s="11">
-        <v>412710</v>
+        <v>833182</v>
       </c>
       <c r="AW86" s="11">
-        <v>482141</v>
+        <v>821658</v>
       </c>
       <c r="AX86" s="11">
-        <v>833182</v>
+        <v>601811</v>
       </c>
       <c r="AY86" s="11">
-        <v>821658</v>
+        <v>866352</v>
       </c>
       <c r="AZ86" s="11">
-        <v>601811</v>
+        <v>817653</v>
       </c>
       <c r="BA86" s="11">
-        <v>866352</v>
+        <v>873491</v>
       </c>
       <c r="BB86" s="11">
-        <v>817653</v>
+        <v>787628</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12029,95 +12029,95 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>48238</v>
+      </c>
+      <c r="Z87" s="13">
+        <v>40457</v>
       </c>
       <c r="AA87" s="13">
-        <v>48238</v>
+        <v>25639</v>
       </c>
       <c r="AB87" s="13">
-        <v>40457</v>
+        <v>31589</v>
       </c>
       <c r="AC87" s="13">
-        <v>25639</v>
+        <v>45890</v>
       </c>
       <c r="AD87" s="13">
-        <v>31589</v>
+        <v>53731</v>
       </c>
       <c r="AE87" s="13">
-        <v>45890</v>
+        <v>58469</v>
       </c>
       <c r="AF87" s="13">
-        <v>53731</v>
+        <v>58639</v>
       </c>
       <c r="AG87" s="13">
-        <v>58469</v>
+        <v>15827</v>
       </c>
       <c r="AH87" s="13">
-        <v>58639</v>
+        <v>30611</v>
       </c>
       <c r="AI87" s="13">
-        <v>15827</v>
+        <v>13344</v>
       </c>
       <c r="AJ87" s="13">
-        <v>30611</v>
+        <v>7423</v>
       </c>
       <c r="AK87" s="13">
-        <v>13344</v>
+        <v>19096</v>
       </c>
       <c r="AL87" s="13">
-        <v>7423</v>
+        <v>14179</v>
       </c>
       <c r="AM87" s="13">
-        <v>19096</v>
+        <v>9561</v>
       </c>
       <c r="AN87" s="13">
-        <v>14179</v>
+        <v>18798</v>
       </c>
       <c r="AO87" s="13">
-        <v>9561</v>
+        <v>44319</v>
       </c>
       <c r="AP87" s="13">
-        <v>18798</v>
+        <v>32823</v>
       </c>
       <c r="AQ87" s="13">
-        <v>44319</v>
+        <v>64684</v>
       </c>
       <c r="AR87" s="13">
-        <v>32823</v>
+        <v>29311</v>
       </c>
       <c r="AS87" s="13">
-        <v>64684</v>
+        <v>44068</v>
       </c>
       <c r="AT87" s="13">
-        <v>29311</v>
+        <v>63112</v>
       </c>
       <c r="AU87" s="13">
-        <v>44068</v>
+        <v>16991</v>
       </c>
       <c r="AV87" s="13">
-        <v>63112</v>
+        <v>31920</v>
       </c>
       <c r="AW87" s="13">
-        <v>16991</v>
+        <v>76566</v>
       </c>
       <c r="AX87" s="13">
-        <v>31920</v>
+        <v>50629</v>
       </c>
       <c r="AY87" s="13">
-        <v>76566</v>
+        <v>34612</v>
       </c>
       <c r="AZ87" s="13">
-        <v>50629</v>
+        <v>32742</v>
       </c>
       <c r="BA87" s="13">
-        <v>34612</v>
+        <v>33925</v>
       </c>
       <c r="BB87" s="13">
-        <v>32742</v>
+        <v>27425</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12188,95 +12188,95 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11">
+        <v>12498</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>21092</v>
       </c>
       <c r="AA88" s="11">
-        <v>12498</v>
+        <v>44730</v>
       </c>
       <c r="AB88" s="11">
-        <v>21092</v>
+        <v>38972</v>
       </c>
       <c r="AC88" s="11">
-        <v>44730</v>
+        <v>45835</v>
       </c>
       <c r="AD88" s="11">
-        <v>38972</v>
+        <v>43657</v>
       </c>
       <c r="AE88" s="11">
-        <v>45835</v>
+        <v>56100</v>
       </c>
       <c r="AF88" s="11">
-        <v>43657</v>
+        <v>56050</v>
       </c>
       <c r="AG88" s="11">
-        <v>56100</v>
+        <v>48083</v>
       </c>
       <c r="AH88" s="11">
-        <v>56050</v>
+        <v>59553</v>
       </c>
       <c r="AI88" s="11">
-        <v>48083</v>
+        <v>48749</v>
       </c>
       <c r="AJ88" s="11">
-        <v>59553</v>
+        <v>37284</v>
       </c>
       <c r="AK88" s="11">
-        <v>48749</v>
+        <v>48042</v>
       </c>
       <c r="AL88" s="11">
-        <v>37284</v>
+        <v>58162</v>
       </c>
       <c r="AM88" s="11">
-        <v>48042</v>
+        <v>61395</v>
       </c>
       <c r="AN88" s="11">
-        <v>58162</v>
+        <v>82900</v>
       </c>
       <c r="AO88" s="11">
-        <v>61395</v>
+        <v>74513</v>
       </c>
       <c r="AP88" s="11">
-        <v>82900</v>
+        <v>67733</v>
       </c>
       <c r="AQ88" s="11">
-        <v>74513</v>
+        <v>82119</v>
       </c>
       <c r="AR88" s="11">
-        <v>67733</v>
+        <v>51311</v>
       </c>
       <c r="AS88" s="11">
-        <v>82119</v>
+        <v>64111</v>
       </c>
       <c r="AT88" s="11">
-        <v>51311</v>
+        <v>59542</v>
       </c>
       <c r="AU88" s="11">
-        <v>64111</v>
+        <v>76316</v>
       </c>
       <c r="AV88" s="11">
-        <v>59542</v>
+        <v>63216</v>
       </c>
       <c r="AW88" s="11">
-        <v>76316</v>
+        <v>112634</v>
       </c>
       <c r="AX88" s="11">
-        <v>63216</v>
+        <v>101181</v>
       </c>
       <c r="AY88" s="11">
-        <v>112634</v>
+        <v>93268</v>
       </c>
       <c r="AZ88" s="11">
-        <v>101181</v>
+        <v>131364</v>
       </c>
       <c r="BA88" s="11">
-        <v>93268</v>
+        <v>154490</v>
       </c>
       <c r="BB88" s="11">
-        <v>131364</v>
+        <v>177236</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12347,95 +12347,95 @@
       <c r="X89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z89" s="13" t="s">
-        <v>58</v>
+      <c r="Y89" s="13">
+        <v>30458</v>
+      </c>
+      <c r="Z89" s="13">
+        <v>47717</v>
       </c>
       <c r="AA89" s="13">
-        <v>30458</v>
+        <v>11000</v>
       </c>
       <c r="AB89" s="13">
-        <v>47717</v>
+        <v>39482</v>
       </c>
       <c r="AC89" s="13">
-        <v>11000</v>
+        <v>38721</v>
       </c>
       <c r="AD89" s="13">
-        <v>39482</v>
+        <v>40786</v>
       </c>
       <c r="AE89" s="13">
-        <v>38721</v>
+        <v>46753</v>
       </c>
       <c r="AF89" s="13">
-        <v>40786</v>
+        <v>37661</v>
       </c>
       <c r="AG89" s="13">
-        <v>46753</v>
+        <v>35333</v>
       </c>
       <c r="AH89" s="13">
-        <v>37661</v>
+        <v>32092</v>
       </c>
       <c r="AI89" s="13">
-        <v>35333</v>
+        <v>43351</v>
       </c>
       <c r="AJ89" s="13">
-        <v>32092</v>
+        <v>33086</v>
       </c>
       <c r="AK89" s="13">
-        <v>43351</v>
+        <v>32265</v>
       </c>
       <c r="AL89" s="13">
-        <v>33086</v>
+        <v>11340</v>
       </c>
       <c r="AM89" s="13">
-        <v>32265</v>
+        <v>28840</v>
       </c>
       <c r="AN89" s="13">
-        <v>11340</v>
+        <v>87050</v>
       </c>
       <c r="AO89" s="13">
-        <v>28840</v>
+        <v>66870</v>
       </c>
       <c r="AP89" s="13">
-        <v>87050</v>
+        <v>42562</v>
       </c>
       <c r="AQ89" s="13">
-        <v>66870</v>
+        <v>57364</v>
       </c>
       <c r="AR89" s="13">
-        <v>42562</v>
+        <v>56322</v>
       </c>
       <c r="AS89" s="13">
-        <v>57364</v>
+        <v>136808</v>
       </c>
       <c r="AT89" s="13">
-        <v>56322</v>
+        <v>111964</v>
       </c>
       <c r="AU89" s="13">
-        <v>136808</v>
+        <v>25486</v>
       </c>
       <c r="AV89" s="13">
-        <v>111964</v>
+        <v>97808</v>
       </c>
       <c r="AW89" s="13">
-        <v>25486</v>
+        <v>56997</v>
       </c>
       <c r="AX89" s="13">
-        <v>97808</v>
+        <v>106699</v>
       </c>
       <c r="AY89" s="13">
-        <v>56997</v>
+        <v>58838</v>
       </c>
       <c r="AZ89" s="13">
-        <v>106699</v>
+        <v>82783</v>
       </c>
       <c r="BA89" s="13">
-        <v>58838</v>
+        <v>87803</v>
       </c>
       <c r="BB89" s="13">
-        <v>82783</v>
+        <v>72782</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12506,95 +12506,95 @@
       <c r="X90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z90" s="11" t="s">
-        <v>58</v>
+      <c r="Y90" s="11">
+        <v>1222</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>3628</v>
       </c>
       <c r="AA90" s="11">
-        <v>1222</v>
+        <v>1949</v>
       </c>
       <c r="AB90" s="11">
-        <v>3628</v>
+        <v>99127</v>
       </c>
       <c r="AC90" s="11">
-        <v>1949</v>
+        <v>3649</v>
       </c>
       <c r="AD90" s="11">
-        <v>99127</v>
+        <v>3855</v>
       </c>
       <c r="AE90" s="11">
-        <v>3649</v>
+        <v>8609</v>
       </c>
       <c r="AF90" s="11">
-        <v>3855</v>
+        <v>3445</v>
       </c>
       <c r="AG90" s="11">
-        <v>8609</v>
+        <v>11894</v>
       </c>
       <c r="AH90" s="11">
-        <v>3445</v>
+        <v>4759</v>
       </c>
       <c r="AI90" s="11">
-        <v>11894</v>
+        <v>3201</v>
       </c>
       <c r="AJ90" s="11">
-        <v>4759</v>
+        <v>4793</v>
       </c>
       <c r="AK90" s="11">
-        <v>3201</v>
+        <v>3763</v>
       </c>
       <c r="AL90" s="11">
-        <v>4793</v>
+        <v>4069</v>
       </c>
       <c r="AM90" s="11">
-        <v>3763</v>
+        <v>12848</v>
       </c>
       <c r="AN90" s="11">
-        <v>4069</v>
+        <v>3241</v>
       </c>
       <c r="AO90" s="11">
-        <v>12848</v>
+        <v>7422</v>
       </c>
       <c r="AP90" s="11">
-        <v>3241</v>
+        <v>6828</v>
       </c>
       <c r="AQ90" s="11">
-        <v>7422</v>
+        <v>15135</v>
       </c>
       <c r="AR90" s="11">
-        <v>6828</v>
+        <v>6686</v>
       </c>
       <c r="AS90" s="11">
-        <v>15135</v>
+        <v>11278</v>
       </c>
       <c r="AT90" s="11">
-        <v>6686</v>
+        <v>12249</v>
       </c>
       <c r="AU90" s="11">
-        <v>11278</v>
+        <v>11745</v>
       </c>
       <c r="AV90" s="11">
-        <v>12249</v>
+        <v>42872</v>
       </c>
       <c r="AW90" s="11">
-        <v>11745</v>
+        <v>31279</v>
       </c>
       <c r="AX90" s="11">
-        <v>42872</v>
+        <v>3559</v>
       </c>
       <c r="AY90" s="11">
-        <v>31279</v>
+        <v>14236</v>
       </c>
       <c r="AZ90" s="11">
-        <v>3559</v>
+        <v>45438</v>
       </c>
       <c r="BA90" s="11">
-        <v>14236</v>
+        <v>33596</v>
       </c>
       <c r="BB90" s="11">
-        <v>45438</v>
+        <v>63941</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12664,94 +12664,94 @@
         <v>0</v>
       </c>
       <c r="Y91" s="15">
-        <v>0</v>
+        <v>476387</v>
       </c>
       <c r="Z91" s="15">
-        <v>0</v>
+        <v>494343</v>
       </c>
       <c r="AA91" s="15">
-        <v>476387</v>
+        <v>454941</v>
       </c>
       <c r="AB91" s="15">
-        <v>494343</v>
+        <v>632738</v>
       </c>
       <c r="AC91" s="15">
-        <v>454941</v>
+        <v>644108</v>
       </c>
       <c r="AD91" s="15">
-        <v>632738</v>
+        <v>662180</v>
       </c>
       <c r="AE91" s="15">
-        <v>644108</v>
+        <v>690756</v>
       </c>
       <c r="AF91" s="15">
-        <v>662180</v>
+        <v>546240</v>
       </c>
       <c r="AG91" s="15">
-        <v>690756</v>
+        <v>675732</v>
       </c>
       <c r="AH91" s="15">
-        <v>546240</v>
+        <v>561517</v>
       </c>
       <c r="AI91" s="15">
-        <v>675732</v>
+        <v>673293</v>
       </c>
       <c r="AJ91" s="15">
-        <v>561517</v>
+        <v>639997</v>
       </c>
       <c r="AK91" s="15">
-        <v>673293</v>
+        <v>641484</v>
       </c>
       <c r="AL91" s="15">
-        <v>639997</v>
+        <v>563507</v>
       </c>
       <c r="AM91" s="15">
-        <v>641484</v>
+        <v>768947</v>
       </c>
       <c r="AN91" s="15">
-        <v>563507</v>
+        <v>851552</v>
       </c>
       <c r="AO91" s="15">
-        <v>768947</v>
+        <v>720900</v>
       </c>
       <c r="AP91" s="15">
-        <v>851552</v>
+        <v>715725</v>
       </c>
       <c r="AQ91" s="15">
-        <v>720900</v>
+        <v>1075321</v>
       </c>
       <c r="AR91" s="15">
-        <v>715725</v>
+        <v>614520</v>
       </c>
       <c r="AS91" s="15">
-        <v>1075321</v>
+        <v>598068</v>
       </c>
       <c r="AT91" s="15">
-        <v>614520</v>
+        <v>788878</v>
       </c>
       <c r="AU91" s="15">
-        <v>598068</v>
+        <v>734964</v>
       </c>
       <c r="AV91" s="15">
-        <v>788878</v>
+        <v>1267086</v>
       </c>
       <c r="AW91" s="15">
-        <v>734964</v>
+        <v>1260457</v>
       </c>
       <c r="AX91" s="15">
-        <v>1267086</v>
+        <v>1032765</v>
       </c>
       <c r="AY91" s="15">
-        <v>1260457</v>
+        <v>1231306</v>
       </c>
       <c r="AZ91" s="15">
-        <v>1032765</v>
+        <v>1260001</v>
       </c>
       <c r="BA91" s="15">
-        <v>1231306</v>
+        <v>1310991</v>
       </c>
       <c r="BB91" s="15">
-        <v>1260001</v>
+        <v>1268715</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12906,11 +12906,11 @@
       <c r="AG93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI93" s="11" t="s">
-        <v>58</v>
+      <c r="AH93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="11">
+        <v>0</v>
       </c>
       <c r="AJ93" s="11">
         <v>0</v>
@@ -12942,11 +12942,11 @@
       <c r="AS93" s="11">
         <v>0</v>
       </c>
-      <c r="AT93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU93" s="11">
-        <v>0</v>
+      <c r="AT93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV93" s="11" t="s">
         <v>58</v>
@@ -13038,11 +13038,11 @@
       <c r="X94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z94" s="13" t="s">
-        <v>58</v>
+      <c r="Y94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="13">
+        <v>0</v>
       </c>
       <c r="AA94" s="13">
         <v>0</v>
@@ -13078,13 +13078,13 @@
         <v>0</v>
       </c>
       <c r="AL94" s="13">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="AM94" s="13">
         <v>0</v>
       </c>
       <c r="AN94" s="13">
-        <v>-69</v>
+        <v>0</v>
       </c>
       <c r="AO94" s="13">
         <v>0</v>
@@ -13197,11 +13197,11 @@
       <c r="X95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z95" s="11" t="s">
-        <v>58</v>
+      <c r="Y95" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="11">
+        <v>0</v>
       </c>
       <c r="AA95" s="11">
         <v>0</v>
@@ -13237,13 +13237,13 @@
         <v>0</v>
       </c>
       <c r="AL95" s="11">
-        <v>0</v>
+        <v>-478</v>
       </c>
       <c r="AM95" s="11">
         <v>0</v>
       </c>
       <c r="AN95" s="11">
-        <v>-478</v>
+        <v>0</v>
       </c>
       <c r="AO95" s="11">
         <v>0</v>
@@ -13383,11 +13383,11 @@
       <c r="AG96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI96" s="13" t="s">
-        <v>58</v>
+      <c r="AH96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="13">
+        <v>0</v>
       </c>
       <c r="AJ96" s="13">
         <v>0</v>
@@ -13396,13 +13396,13 @@
         <v>0</v>
       </c>
       <c r="AL96" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM96" s="13">
         <v>0</v>
       </c>
       <c r="AN96" s="13">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AO96" s="13">
         <v>0</v>
@@ -13419,11 +13419,11 @@
       <c r="AS96" s="13">
         <v>0</v>
       </c>
-      <c r="AT96" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU96" s="13">
-        <v>0</v>
+      <c r="AT96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV96" s="13" t="s">
         <v>58</v>
@@ -13515,11 +13515,11 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>0</v>
       </c>
       <c r="AA97" s="11">
         <v>0</v>
@@ -13555,13 +13555,13 @@
         <v>0</v>
       </c>
       <c r="AL97" s="11">
-        <v>0</v>
+        <v>-4391</v>
       </c>
       <c r="AM97" s="11">
         <v>0</v>
       </c>
       <c r="AN97" s="11">
-        <v>-4391</v>
+        <v>0</v>
       </c>
       <c r="AO97" s="11">
         <v>0</v>
@@ -13674,11 +13674,11 @@
       <c r="X98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z98" s="13" t="s">
-        <v>58</v>
+      <c r="Y98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="13">
+        <v>0</v>
       </c>
       <c r="AA98" s="13">
         <v>0</v>
@@ -13714,13 +13714,13 @@
         <v>0</v>
       </c>
       <c r="AL98" s="13">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AM98" s="13">
         <v>0</v>
       </c>
       <c r="AN98" s="13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="AO98" s="13">
         <v>0</v>
@@ -13836,11 +13836,11 @@
       <c r="Y99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA99" s="11" t="s">
-        <v>58</v>
+      <c r="Z99" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="11">
+        <v>0</v>
       </c>
       <c r="AB99" s="11">
         <v>0</v>
@@ -13873,13 +13873,13 @@
         <v>0</v>
       </c>
       <c r="AL99" s="11">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="AM99" s="11">
         <v>0</v>
       </c>
       <c r="AN99" s="11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AO99" s="11">
         <v>0</v>
@@ -13992,14 +13992,14 @@
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z100" s="13" t="s">
-        <v>58</v>
+      <c r="Y100" s="13">
+        <v>3650</v>
+      </c>
+      <c r="Z100" s="13">
+        <v>0</v>
       </c>
       <c r="AA100" s="13">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="13">
         <v>0</v>
@@ -14190,14 +14190,14 @@
       <c r="AK101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM101" s="11" t="s">
-        <v>58</v>
+      <c r="AL101" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AM101" s="11">
+        <v>0</v>
       </c>
       <c r="AN101" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO101" s="11">
         <v>0</v>
@@ -14214,11 +14214,11 @@
       <c r="AS101" s="11">
         <v>0</v>
       </c>
-      <c r="AT101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU101" s="11">
-        <v>0</v>
+      <c r="AT101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV101" s="11" t="s">
         <v>58</v>
@@ -14309,13 +14309,13 @@
         <v>0</v>
       </c>
       <c r="Y102" s="15">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="Z102" s="15">
         <v>0</v>
       </c>
       <c r="AA102" s="15">
-        <v>3650</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="15">
         <v>0</v>
@@ -14348,13 +14348,13 @@
         <v>0</v>
       </c>
       <c r="AL102" s="15">
-        <v>0</v>
+        <v>-5036</v>
       </c>
       <c r="AM102" s="15">
         <v>0</v>
       </c>
       <c r="AN102" s="15">
-        <v>-5036</v>
+        <v>0</v>
       </c>
       <c r="AO102" s="15">
         <v>0</v>
@@ -14524,11 +14524,11 @@
       <c r="X104" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z104" s="19" t="s">
-        <v>58</v>
+      <c r="Y104" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="19">
+        <v>0</v>
       </c>
       <c r="AA104" s="19">
         <v>0</v>
@@ -14740,11 +14740,11 @@
       <c r="X106" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y106" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z106" s="11" t="s">
-        <v>58</v>
+      <c r="Y106" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="11">
+        <v>0</v>
       </c>
       <c r="AA106" s="11">
         <v>0</v>
@@ -14803,11 +14803,11 @@
       <c r="AS106" s="11">
         <v>0</v>
       </c>
-      <c r="AT106" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU106" s="11">
-        <v>0</v>
+      <c r="AT106" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU106" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV106" s="11" t="s">
         <v>58</v>
@@ -14899,95 +14899,95 @@
       <c r="X107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z107" s="13" t="s">
-        <v>58</v>
+      <c r="Y107" s="13">
+        <v>-88</v>
+      </c>
+      <c r="Z107" s="13">
+        <v>-100</v>
       </c>
       <c r="AA107" s="13">
-        <v>-88</v>
+        <v>-73</v>
       </c>
       <c r="AB107" s="13">
-        <v>-100</v>
+        <v>-105</v>
       </c>
       <c r="AC107" s="13">
-        <v>-73</v>
+        <v>-84</v>
       </c>
       <c r="AD107" s="13">
-        <v>-105</v>
+        <v>-117</v>
       </c>
       <c r="AE107" s="13">
+        <v>-114</v>
+      </c>
+      <c r="AF107" s="13">
+        <v>-132</v>
+      </c>
+      <c r="AG107" s="13">
         <v>-84</v>
       </c>
-      <c r="AF107" s="13">
-        <v>-117</v>
-      </c>
-      <c r="AG107" s="13">
-        <v>-114</v>
-      </c>
       <c r="AH107" s="13">
-        <v>-132</v>
+        <v>-101</v>
       </c>
       <c r="AI107" s="13">
-        <v>-84</v>
+        <v>-95</v>
       </c>
       <c r="AJ107" s="13">
-        <v>-101</v>
+        <v>-168</v>
       </c>
       <c r="AK107" s="13">
-        <v>-95</v>
+        <v>-80</v>
       </c>
       <c r="AL107" s="13">
-        <v>-168</v>
+        <v>0</v>
       </c>
       <c r="AM107" s="13">
-        <v>-80</v>
+        <v>-165</v>
       </c>
       <c r="AN107" s="13">
-        <v>0</v>
+        <v>-97</v>
       </c>
       <c r="AO107" s="13">
-        <v>-165</v>
+        <v>-65</v>
       </c>
       <c r="AP107" s="13">
-        <v>-97</v>
+        <v>-65</v>
       </c>
       <c r="AQ107" s="13">
-        <v>-65</v>
+        <v>-58</v>
       </c>
       <c r="AR107" s="13">
-        <v>-65</v>
+        <v>-55</v>
       </c>
       <c r="AS107" s="13">
-        <v>-58</v>
+        <v>-90</v>
       </c>
       <c r="AT107" s="13">
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="AU107" s="13">
-        <v>-90</v>
+        <v>-52</v>
       </c>
       <c r="AV107" s="13">
-        <v>-61</v>
+        <v>-43</v>
       </c>
       <c r="AW107" s="13">
-        <v>-52</v>
+        <v>-94</v>
       </c>
       <c r="AX107" s="13">
-        <v>-43</v>
+        <v>-91</v>
       </c>
       <c r="AY107" s="13">
-        <v>-94</v>
+        <v>-143</v>
       </c>
       <c r="AZ107" s="13">
-        <v>-91</v>
+        <v>-63</v>
       </c>
       <c r="BA107" s="13">
-        <v>-143</v>
+        <v>-81</v>
       </c>
       <c r="BB107" s="13">
-        <v>-63</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -15058,95 +15058,95 @@
       <c r="X108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y108" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z108" s="11" t="s">
-        <v>58</v>
+      <c r="Y108" s="11">
+        <v>-55</v>
+      </c>
+      <c r="Z108" s="11">
+        <v>-77</v>
       </c>
       <c r="AA108" s="11">
-        <v>-55</v>
+        <v>-94</v>
       </c>
       <c r="AB108" s="11">
-        <v>-77</v>
+        <v>-120</v>
       </c>
       <c r="AC108" s="11">
-        <v>-94</v>
+        <v>-110</v>
       </c>
       <c r="AD108" s="11">
-        <v>-120</v>
+        <v>-138</v>
       </c>
       <c r="AE108" s="11">
-        <v>-110</v>
+        <v>-184</v>
       </c>
       <c r="AF108" s="11">
-        <v>-138</v>
+        <v>-279</v>
       </c>
       <c r="AG108" s="11">
-        <v>-184</v>
+        <v>-170</v>
       </c>
       <c r="AH108" s="11">
-        <v>-279</v>
+        <v>-199</v>
       </c>
       <c r="AI108" s="11">
-        <v>-170</v>
+        <v>-187</v>
       </c>
       <c r="AJ108" s="11">
-        <v>-199</v>
+        <v>-216</v>
       </c>
       <c r="AK108" s="11">
-        <v>-187</v>
+        <v>-198</v>
       </c>
       <c r="AL108" s="11">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="AM108" s="11">
-        <v>-198</v>
+        <v>-299</v>
       </c>
       <c r="AN108" s="11">
-        <v>0</v>
+        <v>-206</v>
       </c>
       <c r="AO108" s="11">
-        <v>-299</v>
+        <v>-145</v>
       </c>
       <c r="AP108" s="11">
-        <v>-206</v>
+        <v>-197</v>
       </c>
       <c r="AQ108" s="11">
-        <v>-145</v>
+        <v>-190</v>
       </c>
       <c r="AR108" s="11">
-        <v>-197</v>
+        <v>-144</v>
       </c>
       <c r="AS108" s="11">
-        <v>-190</v>
+        <v>-251</v>
       </c>
       <c r="AT108" s="11">
-        <v>-144</v>
+        <v>-204</v>
       </c>
       <c r="AU108" s="11">
-        <v>-251</v>
+        <v>-150</v>
       </c>
       <c r="AV108" s="11">
-        <v>-204</v>
+        <v>-185</v>
       </c>
       <c r="AW108" s="11">
-        <v>-150</v>
+        <v>-322</v>
       </c>
       <c r="AX108" s="11">
-        <v>-185</v>
+        <v>-241</v>
       </c>
       <c r="AY108" s="11">
-        <v>-322</v>
+        <v>-628</v>
       </c>
       <c r="AZ108" s="11">
-        <v>-241</v>
+        <v>-333</v>
       </c>
       <c r="BA108" s="11">
-        <v>-628</v>
+        <v>-130</v>
       </c>
       <c r="BB108" s="11">
-        <v>-333</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -15217,95 +15217,95 @@
       <c r="X109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z109" s="13" t="s">
-        <v>58</v>
+      <c r="Y109" s="13">
+        <v>-2</v>
+      </c>
+      <c r="Z109" s="13">
+        <v>-4</v>
       </c>
       <c r="AA109" s="13">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="AB109" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AC109" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AD109" s="13">
+        <v>-35</v>
+      </c>
+      <c r="AE109" s="13">
+        <v>-28</v>
+      </c>
+      <c r="AF109" s="13">
+        <v>-19</v>
+      </c>
+      <c r="AG109" s="13">
+        <v>-13</v>
+      </c>
+      <c r="AH109" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AI109" s="13">
+        <v>-23</v>
+      </c>
+      <c r="AJ109" s="13">
+        <v>-9</v>
+      </c>
+      <c r="AK109" s="13">
         <v>-4</v>
       </c>
-      <c r="AC109" s="13">
-        <v>-15</v>
-      </c>
-      <c r="AD109" s="13">
+      <c r="AL109" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM109" s="13">
         <v>-5</v>
       </c>
-      <c r="AE109" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AF109" s="13">
-        <v>-35</v>
-      </c>
-      <c r="AG109" s="13">
-        <v>-28</v>
-      </c>
-      <c r="AH109" s="13">
-        <v>-19</v>
-      </c>
-      <c r="AI109" s="13">
-        <v>-13</v>
-      </c>
-      <c r="AJ109" s="13">
-        <v>-10</v>
-      </c>
-      <c r="AK109" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AL109" s="13">
+      <c r="AN109" s="13">
+        <v>-3</v>
+      </c>
+      <c r="AO109" s="13">
         <v>-9</v>
       </c>
-      <c r="AM109" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AN109" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO109" s="13">
-        <v>-5</v>
-      </c>
       <c r="AP109" s="13">
-        <v>-3</v>
+        <v>-21</v>
       </c>
       <c r="AQ109" s="13">
         <v>-9</v>
       </c>
       <c r="AR109" s="13">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="AS109" s="13">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AT109" s="13">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="AU109" s="13">
         <v>-4</v>
       </c>
       <c r="AV109" s="13">
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="AW109" s="13">
-        <v>-4</v>
+        <v>-101</v>
       </c>
       <c r="AX109" s="13">
-        <v>-17</v>
+        <v>-43</v>
       </c>
       <c r="AY109" s="13">
-        <v>-101</v>
+        <v>-15</v>
       </c>
       <c r="AZ109" s="13">
-        <v>-43</v>
+        <v>-15</v>
       </c>
       <c r="BA109" s="13">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="BB109" s="13">
-        <v>-15</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.3">
@@ -15376,95 +15376,95 @@
       <c r="X110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z110" s="11" t="s">
-        <v>58</v>
+      <c r="Y110" s="11">
+        <v>-1697</v>
+      </c>
+      <c r="Z110" s="11">
+        <v>-2568</v>
       </c>
       <c r="AA110" s="11">
-        <v>-1697</v>
+        <v>-3011</v>
       </c>
       <c r="AB110" s="11">
-        <v>-2568</v>
+        <v>-2364</v>
       </c>
       <c r="AC110" s="11">
-        <v>-3011</v>
+        <v>-2214</v>
       </c>
       <c r="AD110" s="11">
-        <v>-2364</v>
+        <v>-2625</v>
       </c>
       <c r="AE110" s="11">
-        <v>-2214</v>
+        <v>-3230</v>
       </c>
       <c r="AF110" s="11">
-        <v>-2625</v>
+        <v>-3094</v>
       </c>
       <c r="AG110" s="11">
-        <v>-3230</v>
+        <v>-2415</v>
       </c>
       <c r="AH110" s="11">
-        <v>-3094</v>
+        <v>-1583</v>
       </c>
       <c r="AI110" s="11">
-        <v>-2415</v>
+        <v>-2651</v>
       </c>
       <c r="AJ110" s="11">
-        <v>-1583</v>
+        <v>-3131</v>
       </c>
       <c r="AK110" s="11">
-        <v>-2651</v>
+        <v>-2992</v>
       </c>
       <c r="AL110" s="11">
-        <v>-3131</v>
+        <v>0</v>
       </c>
       <c r="AM110" s="11">
-        <v>-2992</v>
+        <v>-4430</v>
       </c>
       <c r="AN110" s="11">
-        <v>0</v>
+        <v>-3243</v>
       </c>
       <c r="AO110" s="11">
-        <v>-4430</v>
+        <v>-6015</v>
       </c>
       <c r="AP110" s="11">
-        <v>-3243</v>
+        <v>-4862</v>
       </c>
       <c r="AQ110" s="11">
-        <v>-6015</v>
+        <v>-3691</v>
       </c>
       <c r="AR110" s="11">
-        <v>-4862</v>
+        <v>-2939</v>
       </c>
       <c r="AS110" s="11">
-        <v>-3691</v>
+        <v>-3414</v>
       </c>
       <c r="AT110" s="11">
-        <v>-2939</v>
+        <v>-1438</v>
       </c>
       <c r="AU110" s="11">
-        <v>-3414</v>
+        <v>-2076</v>
       </c>
       <c r="AV110" s="11">
-        <v>-1438</v>
+        <v>-2424</v>
       </c>
       <c r="AW110" s="11">
-        <v>-2076</v>
+        <v>-8397</v>
       </c>
       <c r="AX110" s="11">
-        <v>-2424</v>
+        <v>-2686</v>
       </c>
       <c r="AY110" s="11">
-        <v>-8397</v>
+        <v>-5062</v>
       </c>
       <c r="AZ110" s="11">
-        <v>-2686</v>
+        <v>-3590</v>
       </c>
       <c r="BA110" s="11">
-        <v>-5062</v>
+        <v>-3559</v>
       </c>
       <c r="BB110" s="11">
-        <v>-3590</v>
+        <v>-2239</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -15535,95 +15535,95 @@
       <c r="X111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y111" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z111" s="13" t="s">
-        <v>58</v>
+      <c r="Y111" s="13">
+        <v>-4769</v>
+      </c>
+      <c r="Z111" s="13">
+        <v>-9537</v>
       </c>
       <c r="AA111" s="13">
-        <v>-4769</v>
+        <v>0</v>
       </c>
       <c r="AB111" s="13">
-        <v>-9537</v>
+        <v>-5</v>
       </c>
       <c r="AC111" s="13">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AD111" s="13">
-        <v>-5</v>
+        <v>-49</v>
       </c>
       <c r="AE111" s="13">
-        <v>-12</v>
+        <v>-29</v>
       </c>
       <c r="AF111" s="13">
-        <v>-49</v>
+        <v>-8895</v>
       </c>
       <c r="AG111" s="13">
-        <v>-29</v>
+        <v>-4</v>
       </c>
       <c r="AH111" s="13">
-        <v>-8895</v>
+        <v>-4</v>
       </c>
       <c r="AI111" s="13">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="AJ111" s="13">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="AK111" s="13">
-        <v>-20</v>
+        <v>-67</v>
       </c>
       <c r="AL111" s="13">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AM111" s="13">
-        <v>-67</v>
+        <v>-31</v>
       </c>
       <c r="AN111" s="13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AO111" s="13">
-        <v>-31</v>
+        <v>-24</v>
       </c>
       <c r="AP111" s="13">
         <v>-3</v>
       </c>
       <c r="AQ111" s="13">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="AR111" s="13">
         <v>-3</v>
       </c>
       <c r="AS111" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AT111" s="13">
         <v>-1</v>
       </c>
-      <c r="AT111" s="13">
-        <v>-3</v>
-      </c>
       <c r="AU111" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AV111" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW111" s="13">
+        <v>-10</v>
+      </c>
+      <c r="AX111" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY111" s="13">
         <v>-1</v>
       </c>
-      <c r="AW111" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX111" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY111" s="13">
-        <v>-10</v>
-      </c>
       <c r="AZ111" s="13">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="BA111" s="13">
-        <v>-1</v>
+        <v>-68</v>
       </c>
       <c r="BB111" s="13">
-        <v>-71</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15694,95 +15694,95 @@
       <c r="X112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y112" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z112" s="11" t="s">
-        <v>58</v>
+      <c r="Y112" s="11">
+        <v>-31</v>
+      </c>
+      <c r="Z112" s="11">
+        <v>-17</v>
       </c>
       <c r="AA112" s="11">
-        <v>-31</v>
+        <v>-14</v>
       </c>
       <c r="AB112" s="11">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AC112" s="11">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="AD112" s="11">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="AE112" s="11">
-        <v>-22</v>
+        <v>-37</v>
       </c>
       <c r="AF112" s="11">
         <v>-36</v>
       </c>
       <c r="AG112" s="11">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="AH112" s="11">
+        <v>-35</v>
+      </c>
+      <c r="AI112" s="11">
         <v>-36</v>
       </c>
-      <c r="AI112" s="11">
-        <v>-35</v>
-      </c>
       <c r="AJ112" s="11">
-        <v>-35</v>
+        <v>-46</v>
       </c>
       <c r="AK112" s="11">
-        <v>-36</v>
+        <v>-127</v>
       </c>
       <c r="AL112" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="11">
+        <v>-55</v>
+      </c>
+      <c r="AN112" s="11">
+        <v>-30</v>
+      </c>
+      <c r="AO112" s="11">
+        <v>-57</v>
+      </c>
+      <c r="AP112" s="11">
+        <v>-41</v>
+      </c>
+      <c r="AQ112" s="11">
+        <v>-41</v>
+      </c>
+      <c r="AR112" s="11">
         <v>-46</v>
       </c>
-      <c r="AM112" s="11">
-        <v>-127</v>
-      </c>
-      <c r="AN112" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO112" s="11">
+      <c r="AS112" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="11">
         <v>-55</v>
       </c>
-      <c r="AP112" s="11">
-        <v>-30</v>
-      </c>
-      <c r="AQ112" s="11">
-        <v>-57</v>
-      </c>
-      <c r="AR112" s="11">
-        <v>-41</v>
-      </c>
-      <c r="AS112" s="11">
-        <v>-41</v>
-      </c>
-      <c r="AT112" s="11">
-        <v>-46</v>
-      </c>
       <c r="AU112" s="11">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AV112" s="11">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="AW112" s="11">
-        <v>-29</v>
+        <v>-48</v>
       </c>
       <c r="AX112" s="11">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="AY112" s="11">
-        <v>-48</v>
+        <v>-58</v>
       </c>
       <c r="AZ112" s="11">
-        <v>-60</v>
+        <v>-107</v>
       </c>
       <c r="BA112" s="11">
-        <v>-58</v>
+        <v>-65</v>
       </c>
       <c r="BB112" s="11">
-        <v>-107</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="113" spans="2:54" x14ac:dyDescent="0.3">
@@ -15853,11 +15853,11 @@
       <c r="X113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y113" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z113" s="13" t="s">
-        <v>58</v>
+      <c r="Y113" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="13">
+        <v>0</v>
       </c>
       <c r="AA113" s="13">
         <v>0</v>
@@ -15899,13 +15899,13 @@
         <v>0</v>
       </c>
       <c r="AN113" s="13">
-        <v>0</v>
+        <v>-735</v>
       </c>
       <c r="AO113" s="13">
         <v>0</v>
       </c>
       <c r="AP113" s="13">
-        <v>-735</v>
+        <v>0</v>
       </c>
       <c r="AQ113" s="13">
         <v>0</v>
@@ -15916,11 +15916,11 @@
       <c r="AS113" s="13">
         <v>0</v>
       </c>
-      <c r="AT113" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU113" s="13">
-        <v>0</v>
+      <c r="AT113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU113" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV113" s="13" t="s">
         <v>58</v>
@@ -15928,17 +15928,17 @@
       <c r="AW113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX113" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY113" s="13" t="s">
-        <v>58</v>
+      <c r="AX113" s="13">
+        <v>-891</v>
+      </c>
+      <c r="AY113" s="13">
+        <v>0</v>
       </c>
       <c r="AZ113" s="13">
-        <v>-891</v>
+        <v>0</v>
       </c>
       <c r="BA113" s="13">
-        <v>0</v>
+        <v>-2940</v>
       </c>
       <c r="BB113" s="13">
         <v>0</v>
@@ -16012,95 +16012,95 @@
       <c r="X114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z114" s="11" t="s">
-        <v>58</v>
+      <c r="Y114" s="11">
+        <v>-8</v>
+      </c>
+      <c r="Z114" s="11">
+        <v>-1</v>
       </c>
       <c r="AA114" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AB114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="11">
+        <v>-559</v>
+      </c>
+      <c r="AD114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="11">
         <v>-1</v>
       </c>
-      <c r="AC114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE114" s="11">
-        <v>-559</v>
-      </c>
       <c r="AF114" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AG114" s="11">
+        <v>-29</v>
+      </c>
+      <c r="AH114" s="11">
         <v>-1</v>
       </c>
-      <c r="AH114" s="11">
-        <v>-10</v>
-      </c>
       <c r="AI114" s="11">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AJ114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM114" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AN114" s="11">
+        <v>-245</v>
+      </c>
+      <c r="AO114" s="11">
+        <v>-60</v>
+      </c>
+      <c r="AP114" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AQ114" s="11">
+        <v>-13</v>
+      </c>
+      <c r="AR114" s="11">
+        <v>-13</v>
+      </c>
+      <c r="AS114" s="11">
+        <v>-52</v>
+      </c>
+      <c r="AT114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU114" s="11">
         <v>-1</v>
       </c>
-      <c r="AK114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO114" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AP114" s="11">
-        <v>-245</v>
-      </c>
-      <c r="AQ114" s="11">
-        <v>-60</v>
-      </c>
-      <c r="AR114" s="11">
+      <c r="AV114" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AW114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY114" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AZ114" s="11">
+        <v>-5</v>
+      </c>
+      <c r="BA114" s="11">
         <v>-6</v>
       </c>
-      <c r="AS114" s="11">
-        <v>-13</v>
-      </c>
-      <c r="AT114" s="11">
-        <v>-13</v>
-      </c>
-      <c r="AU114" s="11">
-        <v>-52</v>
-      </c>
-      <c r="AV114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW114" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AX114" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AY114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ114" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA114" s="11">
+      <c r="BB114" s="11">
         <v>-2</v>
-      </c>
-      <c r="BB114" s="11">
-        <v>-5</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -16171,95 +16171,95 @@
       <c r="X115" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y115" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z115" s="15" t="s">
-        <v>58</v>
+      <c r="Y115" s="15">
+        <v>-6650</v>
+      </c>
+      <c r="Z115" s="15">
+        <v>-12304</v>
       </c>
       <c r="AA115" s="15">
-        <v>-6650</v>
+        <v>-3207</v>
       </c>
       <c r="AB115" s="15">
-        <v>-12304</v>
+        <v>-2619</v>
       </c>
       <c r="AC115" s="15">
-        <v>-3207</v>
+        <v>-3006</v>
       </c>
       <c r="AD115" s="15">
-        <v>-2619</v>
+        <v>-3000</v>
       </c>
       <c r="AE115" s="15">
-        <v>-3006</v>
+        <v>-3623</v>
       </c>
       <c r="AF115" s="15">
-        <v>-3000</v>
+        <v>-12465</v>
       </c>
       <c r="AG115" s="15">
-        <v>-3623</v>
+        <v>-2750</v>
       </c>
       <c r="AH115" s="15">
-        <v>-12465</v>
+        <v>-1933</v>
       </c>
       <c r="AI115" s="15">
-        <v>-2750</v>
+        <v>-3012</v>
       </c>
       <c r="AJ115" s="15">
-        <v>-1933</v>
+        <v>-3584</v>
       </c>
       <c r="AK115" s="15">
-        <v>-3012</v>
+        <v>-3468</v>
       </c>
       <c r="AL115" s="15">
-        <v>-3584</v>
+        <v>0</v>
       </c>
       <c r="AM115" s="15">
-        <v>-3468</v>
+        <v>-4992</v>
       </c>
       <c r="AN115" s="15">
-        <v>0</v>
+        <v>-4562</v>
       </c>
       <c r="AO115" s="15">
-        <v>-4992</v>
+        <v>-6375</v>
       </c>
       <c r="AP115" s="15">
-        <v>-4562</v>
+        <v>-5195</v>
       </c>
       <c r="AQ115" s="15">
-        <v>-6375</v>
+        <v>-4003</v>
       </c>
       <c r="AR115" s="15">
-        <v>-5195</v>
+        <v>-3215</v>
       </c>
       <c r="AS115" s="15">
-        <v>-4003</v>
+        <v>-3813</v>
       </c>
       <c r="AT115" s="15">
-        <v>-3215</v>
+        <v>-1764</v>
       </c>
       <c r="AU115" s="15">
-        <v>-3813</v>
+        <v>-2312</v>
       </c>
       <c r="AV115" s="15">
-        <v>-1764</v>
+        <v>-2724</v>
       </c>
       <c r="AW115" s="15">
-        <v>-2312</v>
+        <v>-8972</v>
       </c>
       <c r="AX115" s="15">
-        <v>-2724</v>
+        <v>-4012</v>
       </c>
       <c r="AY115" s="15">
-        <v>-8972</v>
+        <v>-5909</v>
       </c>
       <c r="AZ115" s="15">
-        <v>-4012</v>
+        <v>-4184</v>
       </c>
       <c r="BA115" s="15">
-        <v>-5909</v>
+        <v>-6868</v>
       </c>
       <c r="BB115" s="15">
-        <v>-4184</v>
+        <v>-2582</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -16387,11 +16387,11 @@
       <c r="X117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z117" s="11" t="s">
-        <v>58</v>
+      <c r="Y117" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="11">
+        <v>0</v>
       </c>
       <c r="AA117" s="11">
         <v>0</v>
@@ -16545,94 +16545,94 @@
         <v>0</v>
       </c>
       <c r="Y118" s="15">
-        <v>0</v>
+        <v>473387</v>
       </c>
       <c r="Z118" s="15">
-        <v>0</v>
+        <v>482039</v>
       </c>
       <c r="AA118" s="15">
-        <v>473387</v>
+        <v>451734</v>
       </c>
       <c r="AB118" s="15">
-        <v>482039</v>
+        <v>630119</v>
       </c>
       <c r="AC118" s="15">
-        <v>451734</v>
+        <v>641102</v>
       </c>
       <c r="AD118" s="15">
-        <v>630119</v>
+        <v>659180</v>
       </c>
       <c r="AE118" s="15">
-        <v>641102</v>
+        <v>687133</v>
       </c>
       <c r="AF118" s="15">
-        <v>659180</v>
+        <v>533775</v>
       </c>
       <c r="AG118" s="15">
-        <v>687133</v>
+        <v>672982</v>
       </c>
       <c r="AH118" s="15">
-        <v>533775</v>
+        <v>559584</v>
       </c>
       <c r="AI118" s="15">
-        <v>672982</v>
+        <v>670281</v>
       </c>
       <c r="AJ118" s="15">
-        <v>559584</v>
+        <v>636413</v>
       </c>
       <c r="AK118" s="15">
-        <v>670281</v>
+        <v>638016</v>
       </c>
       <c r="AL118" s="15">
-        <v>636413</v>
+        <v>558471</v>
       </c>
       <c r="AM118" s="15">
-        <v>638016</v>
+        <v>763955</v>
       </c>
       <c r="AN118" s="15">
-        <v>558471</v>
+        <v>846990</v>
       </c>
       <c r="AO118" s="15">
-        <v>763955</v>
+        <v>714525</v>
       </c>
       <c r="AP118" s="15">
-        <v>846990</v>
+        <v>710530</v>
       </c>
       <c r="AQ118" s="15">
-        <v>714525</v>
+        <v>1071318</v>
       </c>
       <c r="AR118" s="15">
-        <v>710530</v>
+        <v>611305</v>
       </c>
       <c r="AS118" s="15">
-        <v>1071318</v>
+        <v>594255</v>
       </c>
       <c r="AT118" s="15">
-        <v>611305</v>
+        <v>787114</v>
       </c>
       <c r="AU118" s="15">
-        <v>594255</v>
+        <v>732652</v>
       </c>
       <c r="AV118" s="15">
-        <v>787114</v>
+        <v>1264362</v>
       </c>
       <c r="AW118" s="15">
-        <v>732652</v>
+        <v>1251485</v>
       </c>
       <c r="AX118" s="15">
-        <v>1264362</v>
+        <v>1028753</v>
       </c>
       <c r="AY118" s="15">
-        <v>1251485</v>
+        <v>1225397</v>
       </c>
       <c r="AZ118" s="15">
-        <v>1028753</v>
+        <v>1255817</v>
       </c>
       <c r="BA118" s="15">
-        <v>1225397</v>
+        <v>1304123</v>
       </c>
       <c r="BB118" s="15">
-        <v>1255817</v>
+        <v>1266133</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -17137,95 +17137,95 @@
       <c r="X125" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y125" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z125" s="11" t="s">
-        <v>58</v>
+      <c r="Y125" s="11">
+        <v>20504170</v>
+      </c>
+      <c r="Z125" s="11">
+        <v>9716216</v>
       </c>
       <c r="AA125" s="11">
-        <v>20504170</v>
-      </c>
-      <c r="AB125" s="11">
-        <v>9716216</v>
+        <v>12285976</v>
+      </c>
+      <c r="AB125" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC125" s="11">
-        <v>12285976</v>
-      </c>
-      <c r="AD125" s="11" t="s">
-        <v>58</v>
+        <v>1874429</v>
+      </c>
+      <c r="AD125" s="11">
+        <v>1499115</v>
       </c>
       <c r="AE125" s="11">
-        <v>1874429</v>
+        <v>1500000</v>
       </c>
       <c r="AF125" s="11">
-        <v>1499115</v>
+        <v>16621212</v>
       </c>
       <c r="AG125" s="11">
-        <v>1500000</v>
+        <v>7685057</v>
       </c>
       <c r="AH125" s="11">
-        <v>16621212</v>
+        <v>2423256</v>
       </c>
       <c r="AI125" s="11">
-        <v>7685057</v>
+        <v>22785340</v>
       </c>
       <c r="AJ125" s="11">
-        <v>2423256</v>
+        <v>2443262</v>
       </c>
       <c r="AK125" s="11">
-        <v>22785340</v>
-      </c>
-      <c r="AL125" s="11">
-        <v>2443262</v>
+        <v>17750000</v>
+      </c>
+      <c r="AL125" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM125" s="11">
-        <v>17750000</v>
-      </c>
-      <c r="AN125" s="11" t="s">
-        <v>58</v>
+        <v>26600000</v>
+      </c>
+      <c r="AN125" s="11">
+        <v>30851852</v>
       </c>
       <c r="AO125" s="11">
-        <v>26600000</v>
+        <v>30731707</v>
       </c>
       <c r="AP125" s="11">
-        <v>30851852</v>
+        <v>35409091</v>
       </c>
       <c r="AQ125" s="11">
-        <v>30731707</v>
+        <v>37577778</v>
       </c>
       <c r="AR125" s="11">
-        <v>35409091</v>
+        <v>34587629</v>
       </c>
       <c r="AS125" s="11">
-        <v>37577778</v>
+        <v>25000000</v>
       </c>
       <c r="AT125" s="11">
-        <v>34587629</v>
-      </c>
-      <c r="AU125" s="11">
-        <v>25000000</v>
+        <v>47312500</v>
+      </c>
+      <c r="AU125" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV125" s="11">
-        <v>47312500</v>
-      </c>
-      <c r="AW125" s="11" t="s">
-        <v>58</v>
+        <v>69200000</v>
+      </c>
+      <c r="AW125" s="11">
+        <v>116666667</v>
       </c>
       <c r="AX125" s="11">
-        <v>69200000</v>
+        <v>92333333</v>
       </c>
       <c r="AY125" s="11">
-        <v>116666667</v>
+        <v>101454545</v>
       </c>
       <c r="AZ125" s="11">
-        <v>92333333</v>
+        <v>95127660</v>
       </c>
       <c r="BA125" s="11">
-        <v>101454545</v>
+        <v>91125000</v>
       </c>
       <c r="BB125" s="11">
-        <v>95127660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:54" x14ac:dyDescent="0.3">
@@ -17296,95 +17296,95 @@
       <c r="X126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y126" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z126" s="13" t="s">
-        <v>58</v>
+      <c r="Y126" s="13">
+        <v>63628571</v>
+      </c>
+      <c r="Z126" s="13">
+        <v>68830769</v>
       </c>
       <c r="AA126" s="13">
-        <v>63628571</v>
+        <v>68060345</v>
       </c>
       <c r="AB126" s="13">
-        <v>68830769</v>
+        <v>69008264</v>
       </c>
       <c r="AC126" s="13">
-        <v>68060345</v>
+        <v>72504132</v>
       </c>
       <c r="AD126" s="13">
-        <v>69008264</v>
+        <v>93904255</v>
       </c>
       <c r="AE126" s="13">
-        <v>72504132</v>
+        <v>93965116</v>
       </c>
       <c r="AF126" s="13">
-        <v>93904255</v>
+        <v>94547619</v>
       </c>
       <c r="AG126" s="13">
-        <v>93965116</v>
+        <v>95571429</v>
       </c>
       <c r="AH126" s="13">
-        <v>94547619</v>
+        <v>95644444</v>
       </c>
       <c r="AI126" s="13">
-        <v>95571429</v>
+        <v>93683168</v>
       </c>
       <c r="AJ126" s="13">
-        <v>95644444</v>
+        <v>93262712</v>
       </c>
       <c r="AK126" s="13">
-        <v>93683168</v>
+        <v>101583333</v>
       </c>
       <c r="AL126" s="13">
-        <v>93262712</v>
+        <v>110857143</v>
       </c>
       <c r="AM126" s="13">
-        <v>101583333</v>
+        <v>121371134</v>
       </c>
       <c r="AN126" s="13">
-        <v>110857143</v>
+        <v>130873563</v>
       </c>
       <c r="AO126" s="13">
-        <v>121371134</v>
+        <v>131645161</v>
       </c>
       <c r="AP126" s="13">
-        <v>130873563</v>
+        <v>131709677</v>
       </c>
       <c r="AQ126" s="13">
-        <v>131645161</v>
+        <v>126526316</v>
       </c>
       <c r="AR126" s="13">
-        <v>131709677</v>
+        <v>127326531</v>
       </c>
       <c r="AS126" s="13">
-        <v>126526316</v>
+        <v>124204082</v>
       </c>
       <c r="AT126" s="13">
-        <v>127326531</v>
+        <v>125765217</v>
       </c>
       <c r="AU126" s="13">
-        <v>124204082</v>
+        <v>149904348</v>
       </c>
       <c r="AV126" s="13">
-        <v>125765217</v>
+        <v>256592105</v>
       </c>
       <c r="AW126" s="13">
-        <v>149904348</v>
+        <v>271241379</v>
       </c>
       <c r="AX126" s="13">
-        <v>256592105</v>
+        <v>262344828</v>
       </c>
       <c r="AY126" s="13">
-        <v>271241379</v>
+        <v>258142857</v>
       </c>
       <c r="AZ126" s="13">
-        <v>262344828</v>
+        <v>258754717</v>
       </c>
       <c r="BA126" s="13">
-        <v>258142857</v>
+        <v>258803922</v>
       </c>
       <c r="BB126" s="13">
-        <v>258754717</v>
+        <v>257938776</v>
       </c>
     </row>
     <row r="127" spans="2:54" x14ac:dyDescent="0.3">
@@ -17455,95 +17455,95 @@
       <c r="X127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y127" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z127" s="11" t="s">
-        <v>58</v>
+      <c r="Y127" s="11">
+        <v>34274897</v>
+      </c>
+      <c r="Z127" s="11">
+        <v>35879601</v>
       </c>
       <c r="AA127" s="11">
-        <v>34274897</v>
+        <v>33143728</v>
       </c>
       <c r="AB127" s="11">
-        <v>35879601</v>
+        <v>38131707</v>
       </c>
       <c r="AC127" s="11">
-        <v>33143728</v>
+        <v>38944798</v>
       </c>
       <c r="AD127" s="11">
-        <v>38131707</v>
+        <v>47054402</v>
       </c>
       <c r="AE127" s="11">
-        <v>38944798</v>
+        <v>44605395</v>
       </c>
       <c r="AF127" s="11">
-        <v>47054402</v>
+        <v>43858657</v>
       </c>
       <c r="AG127" s="11">
-        <v>44605395</v>
+        <v>43322511</v>
       </c>
       <c r="AH127" s="11">
-        <v>43858657</v>
+        <v>45086195</v>
       </c>
       <c r="AI127" s="11">
-        <v>43322511</v>
+        <v>46470779</v>
       </c>
       <c r="AJ127" s="11">
-        <v>45086195</v>
+        <v>48973975</v>
       </c>
       <c r="AK127" s="11">
-        <v>46470779</v>
+        <v>48965159</v>
       </c>
       <c r="AL127" s="11">
-        <v>48973975</v>
+        <v>53091706</v>
       </c>
       <c r="AM127" s="11">
-        <v>48965159</v>
+        <v>63769279</v>
       </c>
       <c r="AN127" s="11">
-        <v>53091706</v>
+        <v>62074306</v>
       </c>
       <c r="AO127" s="11">
-        <v>63769279</v>
+        <v>62516717</v>
       </c>
       <c r="AP127" s="11">
-        <v>62074306</v>
+        <v>62634385</v>
       </c>
       <c r="AQ127" s="11">
-        <v>62516717</v>
+        <v>60051682</v>
       </c>
       <c r="AR127" s="11">
-        <v>62634385</v>
+        <v>64773678</v>
       </c>
       <c r="AS127" s="11">
-        <v>60051682</v>
+        <v>64731150</v>
       </c>
       <c r="AT127" s="11">
-        <v>64773678</v>
+        <v>66571733</v>
       </c>
       <c r="AU127" s="11">
-        <v>64731150</v>
+        <v>77287570</v>
       </c>
       <c r="AV127" s="11">
-        <v>66571733</v>
+        <v>110130277</v>
       </c>
       <c r="AW127" s="11">
-        <v>77287570</v>
+        <v>110025022</v>
       </c>
       <c r="AX127" s="11">
-        <v>110130277</v>
+        <v>110014630</v>
       </c>
       <c r="AY127" s="11">
-        <v>110025022</v>
+        <v>110115523</v>
       </c>
       <c r="AZ127" s="11">
-        <v>110014630</v>
+        <v>110120469</v>
       </c>
       <c r="BA127" s="11">
-        <v>110115523</v>
+        <v>110105128</v>
       </c>
       <c r="BB127" s="11">
-        <v>110120469</v>
+        <v>110131129</v>
       </c>
     </row>
     <row r="128" spans="2:54" x14ac:dyDescent="0.3">
@@ -17614,95 +17614,95 @@
       <c r="X128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y128" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z128" s="13" t="s">
-        <v>58</v>
+      <c r="Y128" s="13">
+        <v>119088608</v>
+      </c>
+      <c r="Z128" s="13">
+        <v>130718310</v>
       </c>
       <c r="AA128" s="13">
-        <v>119088608</v>
+        <v>141549296</v>
       </c>
       <c r="AB128" s="13">
-        <v>130718310</v>
+        <v>142411765</v>
       </c>
       <c r="AC128" s="13">
-        <v>141549296</v>
+        <v>148769231</v>
       </c>
       <c r="AD128" s="13">
-        <v>142411765</v>
+        <v>155625000</v>
       </c>
       <c r="AE128" s="13">
-        <v>148769231</v>
+        <v>179054054</v>
       </c>
       <c r="AF128" s="13">
-        <v>155625000</v>
+        <v>179360000</v>
       </c>
       <c r="AG128" s="13">
-        <v>179054054</v>
+        <v>178364706</v>
       </c>
       <c r="AH128" s="13">
-        <v>179360000</v>
+        <v>179277778</v>
       </c>
       <c r="AI128" s="13">
-        <v>178364706</v>
+        <v>200333333</v>
       </c>
       <c r="AJ128" s="13">
-        <v>179277778</v>
+        <v>205388060</v>
       </c>
       <c r="AK128" s="13">
-        <v>200333333</v>
+        <v>203138462</v>
       </c>
       <c r="AL128" s="13">
-        <v>205388060</v>
+        <v>204640625</v>
       </c>
       <c r="AM128" s="13">
-        <v>203138462</v>
+        <v>216260870</v>
       </c>
       <c r="AN128" s="13">
-        <v>204640625</v>
+        <v>246549296</v>
       </c>
       <c r="AO128" s="13">
-        <v>216260870</v>
+        <v>247267606</v>
       </c>
       <c r="AP128" s="13">
-        <v>246549296</v>
+        <v>244242857</v>
       </c>
       <c r="AQ128" s="13">
-        <v>247267606</v>
+        <v>247897059</v>
       </c>
       <c r="AR128" s="13">
-        <v>244242857</v>
+        <v>249387097</v>
       </c>
       <c r="AS128" s="13">
-        <v>247897059</v>
+        <v>246618421</v>
       </c>
       <c r="AT128" s="13">
-        <v>249387097</v>
+        <v>254350000</v>
       </c>
       <c r="AU128" s="13">
-        <v>246618421</v>
+        <v>324328358</v>
       </c>
       <c r="AV128" s="13">
-        <v>254350000</v>
+        <v>496920000</v>
       </c>
       <c r="AW128" s="13">
-        <v>324328358</v>
+        <v>442460000</v>
       </c>
       <c r="AX128" s="13">
-        <v>496920000</v>
+        <v>449545455</v>
       </c>
       <c r="AY128" s="13">
-        <v>442460000</v>
+        <v>447796610</v>
       </c>
       <c r="AZ128" s="13">
-        <v>449545455</v>
+        <v>445984375</v>
       </c>
       <c r="BA128" s="13">
-        <v>447796610</v>
+        <v>449612903</v>
       </c>
       <c r="BB128" s="13">
-        <v>445984375</v>
+        <v>448220588</v>
       </c>
     </row>
     <row r="129" spans="2:54" x14ac:dyDescent="0.3">
@@ -17773,95 +17773,95 @@
       <c r="X129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y129" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z129" s="11" t="s">
-        <v>58</v>
+      <c r="Y129" s="11">
+        <v>306150515</v>
+      </c>
+      <c r="Z129" s="11">
+        <v>327778356</v>
       </c>
       <c r="AA129" s="11">
-        <v>306150515</v>
+        <v>317130115</v>
       </c>
       <c r="AB129" s="11">
-        <v>327778356</v>
+        <v>328065354</v>
       </c>
       <c r="AC129" s="11">
-        <v>317130115</v>
+        <v>392132697</v>
       </c>
       <c r="AD129" s="11">
-        <v>328065354</v>
+        <v>405424188</v>
       </c>
       <c r="AE129" s="11">
-        <v>392132697</v>
+        <v>430175189</v>
       </c>
       <c r="AF129" s="11">
-        <v>405424188</v>
+        <v>402409608</v>
       </c>
       <c r="AG129" s="11">
-        <v>430175189</v>
+        <v>387719413</v>
       </c>
       <c r="AH129" s="11">
-        <v>402409608</v>
+        <v>399189815</v>
       </c>
       <c r="AI129" s="11">
-        <v>387719413</v>
+        <v>443810361</v>
       </c>
       <c r="AJ129" s="11">
-        <v>399189815</v>
+        <v>453959245</v>
       </c>
       <c r="AK129" s="11">
-        <v>443810361</v>
+        <v>439235830</v>
       </c>
       <c r="AL129" s="11">
-        <v>453959245</v>
+        <v>506554201</v>
       </c>
       <c r="AM129" s="11">
-        <v>439235830</v>
+        <v>574747552</v>
       </c>
       <c r="AN129" s="11">
-        <v>506554201</v>
+        <v>574873846</v>
       </c>
       <c r="AO129" s="11">
-        <v>574747552</v>
+        <v>556282609</v>
       </c>
       <c r="AP129" s="11">
-        <v>574873846</v>
+        <v>585898284</v>
       </c>
       <c r="AQ129" s="11">
-        <v>556282609</v>
+        <v>505460147</v>
       </c>
       <c r="AR129" s="11">
-        <v>585898284</v>
+        <v>651404040</v>
       </c>
       <c r="AS129" s="11">
-        <v>505460147</v>
+        <v>595240106</v>
       </c>
       <c r="AT129" s="11">
-        <v>651404040</v>
+        <v>636898148</v>
       </c>
       <c r="AU129" s="11">
-        <v>595240106</v>
+        <v>721767964</v>
       </c>
       <c r="AV129" s="11">
-        <v>636898148</v>
+        <v>1157197222</v>
       </c>
       <c r="AW129" s="11">
-        <v>721767964</v>
+        <v>1163821530</v>
       </c>
       <c r="AX129" s="11">
-        <v>1157197222</v>
+        <v>1092215971</v>
       </c>
       <c r="AY129" s="11">
-        <v>1163821530</v>
+        <v>1096648101</v>
       </c>
       <c r="AZ129" s="11">
-        <v>1092215971</v>
+        <v>1070226440</v>
       </c>
       <c r="BA129" s="11">
-        <v>1096648101</v>
+        <v>1098730818</v>
       </c>
       <c r="BB129" s="11">
-        <v>1070226440</v>
+        <v>1123577746</v>
       </c>
     </row>
     <row r="130" spans="2:54" x14ac:dyDescent="0.3">
@@ -17932,95 +17932,95 @@
       <c r="X130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y130" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z130" s="13" t="s">
-        <v>58</v>
+      <c r="Y130" s="13">
+        <v>233033816</v>
+      </c>
+      <c r="Z130" s="13">
+        <v>262707792</v>
       </c>
       <c r="AA130" s="13">
-        <v>233033816</v>
+        <v>235220183</v>
       </c>
       <c r="AB130" s="13">
-        <v>262707792</v>
+        <v>250706349</v>
       </c>
       <c r="AC130" s="13">
-        <v>235220183</v>
+        <v>310067568</v>
       </c>
       <c r="AD130" s="13">
-        <v>250706349</v>
+        <v>316064706</v>
       </c>
       <c r="AE130" s="13">
-        <v>310067568</v>
+        <v>288024631</v>
       </c>
       <c r="AF130" s="13">
-        <v>316064706</v>
+        <v>250594017</v>
       </c>
       <c r="AG130" s="13">
-        <v>288024631</v>
+        <v>243492308</v>
       </c>
       <c r="AH130" s="13">
-        <v>250594017</v>
+        <v>270893805</v>
       </c>
       <c r="AI130" s="13">
-        <v>243492308</v>
+        <v>230068966</v>
       </c>
       <c r="AJ130" s="13">
-        <v>270893805</v>
+        <v>322739130</v>
       </c>
       <c r="AK130" s="13">
-        <v>230068966</v>
+        <v>235753086</v>
       </c>
       <c r="AL130" s="13">
-        <v>322739130</v>
+        <v>211626866</v>
       </c>
       <c r="AM130" s="13">
-        <v>235753086</v>
+        <v>434590909</v>
       </c>
       <c r="AN130" s="13">
-        <v>211626866</v>
+        <v>341781818</v>
       </c>
       <c r="AO130" s="13">
-        <v>434590909</v>
+        <v>227276923</v>
       </c>
       <c r="AP130" s="13">
-        <v>341781818</v>
+        <v>271264463</v>
       </c>
       <c r="AQ130" s="13">
-        <v>227276923</v>
+        <v>308019048</v>
       </c>
       <c r="AR130" s="13">
-        <v>271264463</v>
+        <v>329337079</v>
       </c>
       <c r="AS130" s="13">
-        <v>308019048</v>
+        <v>259223529</v>
       </c>
       <c r="AT130" s="13">
-        <v>329337079</v>
+        <v>292185185</v>
       </c>
       <c r="AU130" s="13">
-        <v>259223529</v>
+        <v>339820000</v>
       </c>
       <c r="AV130" s="13">
-        <v>292185185</v>
+        <v>469411765</v>
       </c>
       <c r="AW130" s="13">
-        <v>339820000</v>
+        <v>402978947</v>
       </c>
       <c r="AX130" s="13">
-        <v>469411765</v>
+        <v>477632075</v>
       </c>
       <c r="AY130" s="13">
-        <v>402978947</v>
+        <v>558258065</v>
       </c>
       <c r="AZ130" s="13">
-        <v>477632075</v>
+        <v>545700000</v>
       </c>
       <c r="BA130" s="13">
-        <v>558258065</v>
+        <v>652403846</v>
       </c>
       <c r="BB130" s="13">
-        <v>545700000</v>
+        <v>721710526</v>
       </c>
     </row>
     <row r="131" spans="2:54" x14ac:dyDescent="0.3">
@@ -18091,95 +18091,95 @@
       <c r="X131" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y131" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z131" s="11" t="s">
-        <v>58</v>
+      <c r="Y131" s="11">
+        <v>55057269</v>
+      </c>
+      <c r="Z131" s="11">
+        <v>60262857</v>
       </c>
       <c r="AA131" s="11">
-        <v>55057269</v>
+        <v>60201884</v>
       </c>
       <c r="AB131" s="11">
-        <v>60262857</v>
+        <v>63061489</v>
       </c>
       <c r="AC131" s="11">
-        <v>60201884</v>
+        <v>68512706</v>
       </c>
       <c r="AD131" s="11">
-        <v>63061489</v>
+        <v>69963141</v>
       </c>
       <c r="AE131" s="11">
-        <v>68512706</v>
+        <v>73333333</v>
       </c>
       <c r="AF131" s="11">
-        <v>69963141</v>
+        <v>70414573</v>
       </c>
       <c r="AG131" s="11">
-        <v>73333333</v>
+        <v>69989811</v>
       </c>
       <c r="AH131" s="11">
-        <v>70414573</v>
+        <v>71837153</v>
       </c>
       <c r="AI131" s="11">
-        <v>69989811</v>
+        <v>74425954</v>
       </c>
       <c r="AJ131" s="11">
-        <v>71837153</v>
+        <v>87521127</v>
       </c>
       <c r="AK131" s="11">
-        <v>74425954</v>
+        <v>92924565</v>
       </c>
       <c r="AL131" s="11">
-        <v>87521127</v>
+        <v>100279310</v>
       </c>
       <c r="AM131" s="11">
-        <v>92924565</v>
+        <v>107899824</v>
       </c>
       <c r="AN131" s="11">
-        <v>100279310</v>
+        <v>118091168</v>
       </c>
       <c r="AO131" s="11">
-        <v>107899824</v>
+        <v>117900316</v>
       </c>
       <c r="AP131" s="11">
-        <v>118091168</v>
+        <v>113455611</v>
       </c>
       <c r="AQ131" s="11">
-        <v>117900316</v>
+        <v>120941090</v>
       </c>
       <c r="AR131" s="11">
-        <v>113455611</v>
+        <v>108023158</v>
       </c>
       <c r="AS131" s="11">
-        <v>120941090</v>
+        <v>110536207</v>
       </c>
       <c r="AT131" s="11">
-        <v>108023158</v>
+        <v>113847036</v>
       </c>
       <c r="AU131" s="11">
-        <v>110536207</v>
+        <v>118136223</v>
       </c>
       <c r="AV131" s="11">
-        <v>113847036</v>
+        <v>171782609</v>
       </c>
       <c r="AW131" s="11">
-        <v>118136223</v>
+        <v>191554422</v>
       </c>
       <c r="AX131" s="11">
-        <v>171782609</v>
+        <v>196850195</v>
       </c>
       <c r="AY131" s="11">
-        <v>191554422</v>
+        <v>192702479</v>
       </c>
       <c r="AZ131" s="11">
-        <v>196850195</v>
+        <v>199036364</v>
       </c>
       <c r="BA131" s="11">
-        <v>192702479</v>
+        <v>204081902</v>
       </c>
       <c r="BB131" s="11">
-        <v>199036364</v>
+        <v>200947846</v>
       </c>
     </row>
     <row r="132" spans="2:54" x14ac:dyDescent="0.3">
@@ -18250,95 +18250,95 @@
       <c r="X132" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y132" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z132" s="13" t="s">
-        <v>58</v>
+      <c r="Y132" s="13">
+        <v>135368889</v>
+      </c>
+      <c r="Z132" s="13">
+        <v>160663300</v>
       </c>
       <c r="AA132" s="13">
-        <v>135368889</v>
+        <v>95652174</v>
       </c>
       <c r="AB132" s="13">
-        <v>160663300</v>
+        <v>100208122</v>
       </c>
       <c r="AC132" s="13">
-        <v>95652174</v>
+        <v>133520690</v>
       </c>
       <c r="AD132" s="13">
-        <v>100208122</v>
+        <v>153909434</v>
       </c>
       <c r="AE132" s="13">
-        <v>133520690</v>
+        <v>164045614</v>
       </c>
       <c r="AF132" s="13">
-        <v>153909434</v>
+        <v>150644000</v>
       </c>
       <c r="AG132" s="13">
-        <v>164045614</v>
+        <v>157035556</v>
       </c>
       <c r="AH132" s="13">
-        <v>150644000</v>
+        <v>158088670</v>
       </c>
       <c r="AI132" s="13">
-        <v>157035556</v>
+        <v>157068841</v>
       </c>
       <c r="AJ132" s="13">
-        <v>158088670</v>
+        <v>161395122</v>
       </c>
       <c r="AK132" s="13">
-        <v>157068841</v>
+        <v>176311475</v>
       </c>
       <c r="AL132" s="13">
-        <v>161395122</v>
+        <v>210000000</v>
       </c>
       <c r="AM132" s="13">
-        <v>176311475</v>
+        <v>216842105</v>
       </c>
       <c r="AN132" s="13">
-        <v>210000000</v>
+        <v>215470297</v>
       </c>
       <c r="AO132" s="13">
-        <v>216842105</v>
+        <v>240539568</v>
       </c>
       <c r="AP132" s="13">
-        <v>215470297</v>
+        <v>262728395</v>
       </c>
       <c r="AQ132" s="13">
-        <v>240539568</v>
+        <v>253823009</v>
       </c>
       <c r="AR132" s="13">
-        <v>262728395</v>
+        <v>280208955</v>
       </c>
       <c r="AS132" s="13">
-        <v>253823009</v>
+        <v>448550820</v>
       </c>
       <c r="AT132" s="13">
-        <v>280208955</v>
+        <v>344504615</v>
       </c>
       <c r="AU132" s="13">
-        <v>448550820</v>
+        <v>299835294</v>
       </c>
       <c r="AV132" s="13">
-        <v>344504615</v>
+        <v>504164948</v>
       </c>
       <c r="AW132" s="13">
-        <v>299835294</v>
+        <v>435091603</v>
       </c>
       <c r="AX132" s="13">
-        <v>504164948</v>
+        <v>442734440</v>
       </c>
       <c r="AY132" s="13">
-        <v>435091603</v>
+        <v>432632353</v>
       </c>
       <c r="AZ132" s="13">
-        <v>442734440</v>
+        <v>411855721</v>
       </c>
       <c r="BA132" s="13">
-        <v>432632353</v>
+        <v>436830846</v>
       </c>
       <c r="BB132" s="13">
-        <v>411855721</v>
+        <v>411197740</v>
       </c>
     </row>
     <row r="133" spans="2:54" x14ac:dyDescent="0.3">
@@ -18409,95 +18409,95 @@
       <c r="X133" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z133" s="11" t="s">
-        <v>58</v>
+      <c r="Y133" s="11">
+        <v>611000000</v>
+      </c>
+      <c r="Z133" s="11">
+        <v>604666667</v>
       </c>
       <c r="AA133" s="11">
-        <v>611000000</v>
+        <v>649666667</v>
       </c>
       <c r="AB133" s="11">
-        <v>604666667</v>
+        <v>643681818</v>
       </c>
       <c r="AC133" s="11">
-        <v>649666667</v>
+        <v>912250000</v>
       </c>
       <c r="AD133" s="11">
-        <v>643681818</v>
+        <v>771000000</v>
       </c>
       <c r="AE133" s="11">
-        <v>912250000</v>
+        <v>782636364</v>
       </c>
       <c r="AF133" s="11">
-        <v>771000000</v>
+        <v>861250000</v>
       </c>
       <c r="AG133" s="11">
-        <v>782636364</v>
+        <v>743375000</v>
       </c>
       <c r="AH133" s="11">
-        <v>861250000</v>
+        <v>793166667</v>
       </c>
       <c r="AI133" s="11">
-        <v>743375000</v>
+        <v>800250000</v>
       </c>
       <c r="AJ133" s="11">
-        <v>793166667</v>
+        <v>798833333</v>
       </c>
       <c r="AK133" s="11">
-        <v>800250000</v>
+        <v>940750000</v>
       </c>
       <c r="AL133" s="11">
-        <v>798833333</v>
+        <v>813800000</v>
       </c>
       <c r="AM133" s="11">
-        <v>940750000</v>
+        <v>917714286</v>
       </c>
       <c r="AN133" s="11">
-        <v>813800000</v>
+        <v>1080333333</v>
       </c>
       <c r="AO133" s="11">
-        <v>917714286</v>
+        <v>824666667</v>
       </c>
       <c r="AP133" s="11">
-        <v>1080333333</v>
+        <v>853500000</v>
       </c>
       <c r="AQ133" s="11">
-        <v>824666667</v>
+        <v>796578947</v>
       </c>
       <c r="AR133" s="11">
-        <v>853500000</v>
+        <v>835750000</v>
       </c>
       <c r="AS133" s="11">
-        <v>796578947</v>
+        <v>805571429</v>
       </c>
       <c r="AT133" s="11">
-        <v>835750000</v>
+        <v>765562500</v>
       </c>
       <c r="AU133" s="11">
-        <v>805571429</v>
+        <v>978750000</v>
       </c>
       <c r="AV133" s="11">
-        <v>765562500</v>
+        <v>1099282051</v>
       </c>
       <c r="AW133" s="11">
-        <v>978750000</v>
+        <v>1737722222</v>
       </c>
       <c r="AX133" s="11">
-        <v>1099282051</v>
+        <v>1779500000</v>
       </c>
       <c r="AY133" s="11">
-        <v>1737722222</v>
+        <v>1423600000</v>
       </c>
       <c r="AZ133" s="11">
-        <v>1779500000</v>
+        <v>1376909091</v>
       </c>
       <c r="BA133" s="11">
-        <v>1423600000</v>
+        <v>1244296296</v>
       </c>
       <c r="BB133" s="11">
-        <v>1376909091</v>
+        <v>1390021739</v>
       </c>
     </row>
     <row r="134" spans="2:54" x14ac:dyDescent="0.3">
@@ -18664,14 +18664,14 @@
       <c r="AK135" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL135" s="11" t="s">
-        <v>58</v>
+      <c r="AL135" s="11">
+        <v>69000000</v>
       </c>
       <c r="AM135" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN135" s="11">
-        <v>69000000</v>
+      <c r="AN135" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO135" s="11" t="s">
         <v>58</v>
@@ -18823,14 +18823,14 @@
       <c r="AK136" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL136" s="13" t="s">
-        <v>58</v>
+      <c r="AL136" s="13">
+        <v>43454545</v>
       </c>
       <c r="AM136" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN136" s="13">
-        <v>43454545</v>
+      <c r="AN136" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO136" s="13" t="s">
         <v>58</v>
@@ -18982,14 +18982,14 @@
       <c r="AK137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL137" s="11" t="s">
-        <v>58</v>
+      <c r="AL137" s="11">
+        <v>627285714</v>
       </c>
       <c r="AM137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN137" s="11">
-        <v>627285714</v>
+      <c r="AN137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO137" s="11" t="s">
         <v>58</v>
@@ -19141,14 +19141,14 @@
       <c r="AK138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL138" s="13" t="s">
-        <v>58</v>
+      <c r="AL138" s="13">
+        <v>38000000</v>
       </c>
       <c r="AM138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN138" s="13">
-        <v>38000000</v>
+      <c r="AN138" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO138" s="13" t="s">
         <v>58</v>
@@ -19261,14 +19261,14 @@
       <c r="X139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y139" s="11" t="s">
-        <v>58</v>
+      <c r="Y139" s="11">
+        <v>73000000</v>
       </c>
       <c r="Z139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA139" s="11">
-        <v>73000000</v>
+      <c r="AA139" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB139" s="11" t="s">
         <v>58</v>
